--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D581"/>
+  <dimension ref="A1:D638"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Sakshi Gupta</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B88" t="str">
         <v>Other</v>
       </c>
       <c r="C88" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D88" t="str">
         <v>Closed</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>MD. Munna</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B89" t="str">
         <v>Other</v>
       </c>
       <c r="C89" t="str">
-        <v>munna@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D89" t="str">
         <v>Closed</v>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Akshay Kumar</v>
+        <v>MD. Munna</v>
       </c>
       <c r="B90" t="str">
         <v>Other</v>
       </c>
       <c r="C90" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>munna@awlindia.com</v>
       </c>
       <c r="D90" t="str">
         <v>Closed</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Mahima Manchanda</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B91" t="str">
         <v>Other</v>
       </c>
       <c r="C91" t="str">
-        <v>mahima@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D91" t="str">
         <v>Closed</v>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>IT SUPPORT</v>
+        <v>Mahima Manchanda</v>
       </c>
       <c r="B92" t="str">
         <v>Other</v>
       </c>
       <c r="C92" t="str">
-        <v>support@awlindia.com</v>
+        <v>mahima@awlindia.com</v>
       </c>
       <c r="D92" t="str">
         <v>Closed</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>IT SUPPORT</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B93" t="str">
         <v>Other</v>
       </c>
       <c r="C93" t="str">
-        <v>support@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D93" t="str">
         <v>Closed</v>
@@ -1776,13 +1776,13 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Priya Pathak</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B99" t="str">
         <v>Other</v>
       </c>
       <c r="C99" t="str">
-        <v>priya@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D99" t="str">
         <v>Closed</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Mahima Manchanda</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B100" t="str">
         <v>Other</v>
       </c>
       <c r="C100" t="str">
-        <v>mahima@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D100" t="str">
         <v>Closed</v>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>MD. Munna</v>
+        <v>Priya Pathak</v>
       </c>
       <c r="B101" t="str">
         <v>Other</v>
       </c>
       <c r="C101" t="str">
-        <v>munna@awlindia.com</v>
+        <v>priya@awlindia.com</v>
       </c>
       <c r="D101" t="str">
         <v>Closed</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>IT SUPPORT</v>
+        <v>MD. Munna</v>
       </c>
       <c r="B103" t="str">
         <v>Other</v>
       </c>
       <c r="C103" t="str">
-        <v>support@awlindia.com</v>
+        <v>munna@awlindia.com</v>
       </c>
       <c r="D103" t="str">
         <v>Closed</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Makhan Singh</v>
+        <v>Mahima Manchanda</v>
       </c>
       <c r="B104" t="str">
         <v>Other</v>
       </c>
       <c r="C104" t="str">
-        <v>makhan@awlindia.com</v>
+        <v>mahima@awlindia.com</v>
       </c>
       <c r="D104" t="str">
         <v>Closed</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Makhan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B105" t="str">
         <v>Other</v>
       </c>
       <c r="C105" t="str">
-        <v>makhan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D105" t="str">
         <v>Closed</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>IT SUPPORT</v>
+        <v>Makhan Singh</v>
       </c>
       <c r="B107" t="str">
         <v>Other</v>
       </c>
       <c r="C107" t="str">
-        <v>support@awlindia.com</v>
+        <v>makhan@awlindia.com</v>
       </c>
       <c r="D107" t="str">
         <v>Closed</v>
@@ -1902,13 +1902,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Aman Lohan</v>
+        <v>Makhan Singh</v>
       </c>
       <c r="B108" t="str">
         <v>Other</v>
       </c>
       <c r="C108" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>makhan@awlindia.com</v>
       </c>
       <c r="D108" t="str">
         <v>Closed</v>
@@ -1930,13 +1930,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B110" t="str">
         <v>Other</v>
       </c>
       <c r="C110" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D110" t="str">
         <v>Closed</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Radhika Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B113" t="str">
         <v>Other</v>
       </c>
       <c r="C113" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D113" t="str">
         <v>Closed</v>
@@ -2000,13 +2000,13 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>IT SUPPORT</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B115" t="str">
         <v>Other</v>
       </c>
       <c r="C115" t="str">
-        <v>support@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D115" t="str">
         <v>Closed</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Radhika Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B117" t="str">
         <v>Other</v>
       </c>
       <c r="C117" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D117" t="str">
         <v>Closed</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B118" t="str">
         <v>Other</v>
       </c>
       <c r="C118" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D118" t="str">
         <v>Closed</v>
@@ -2056,13 +2056,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>IT SUPPORT</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B119" t="str">
         <v>Other</v>
       </c>
       <c r="C119" t="str">
-        <v>support@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D119" t="str">
         <v>Closed</v>
@@ -2070,13 +2070,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B120" t="str">
         <v>Other</v>
       </c>
       <c r="C120" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D120" t="str">
         <v>Closed</v>
@@ -2084,13 +2084,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B121" t="str">
         <v>Other</v>
       </c>
       <c r="C121" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D121" t="str">
         <v>Closed</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Prashant Srivastava</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B122" t="str">
         <v>Other</v>
       </c>
       <c r="C122" t="str">
-        <v>dev.prashant@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D122" t="str">
         <v>Closed</v>
@@ -2112,13 +2112,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B123" t="str">
         <v>Other</v>
       </c>
       <c r="C123" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D123" t="str">
         <v>Closed</v>
@@ -2126,13 +2126,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Vikas Tiwari</v>
+        <v>Prashant Srivastava</v>
       </c>
       <c r="B124" t="str">
         <v>Other</v>
       </c>
       <c r="C124" t="str">
-        <v>vikas.tiwari@awlindia.com</v>
+        <v>dev.prashant@awlindia.com</v>
       </c>
       <c r="D124" t="str">
         <v>Closed</v>
@@ -2154,13 +2154,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vikas Tiwari</v>
       </c>
       <c r="B126" t="str">
         <v>Other</v>
       </c>
       <c r="C126" t="str">
-        <v>support@awlindia.com</v>
+        <v>vikas.tiwari@awlindia.com</v>
       </c>
       <c r="D126" t="str">
         <v>Closed</v>
@@ -2168,13 +2168,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Radhika Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B127" t="str">
         <v>Other</v>
       </c>
       <c r="C127" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D127" t="str">
         <v>Closed</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>IT SUPPORT</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B129" t="str">
         <v>Other</v>
       </c>
       <c r="C129" t="str">
-        <v>support@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D129" t="str">
         <v>Closed</v>
@@ -2210,13 +2210,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Pooja Rawat</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B130" t="str">
         <v>Other</v>
       </c>
       <c r="C130" t="str">
-        <v>pooja@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D130" t="str">
         <v>Closed</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B131" t="str">
         <v>Other</v>
       </c>
       <c r="C131" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D131" t="str">
         <v>Closed</v>
@@ -2238,13 +2238,13 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Aman Lohan</v>
+        <v>Pooja Rawat</v>
       </c>
       <c r="B132" t="str">
         <v>Other</v>
       </c>
       <c r="C132" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>pooja@awlindia.com</v>
       </c>
       <c r="D132" t="str">
         <v>Closed</v>
@@ -2252,13 +2252,13 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B133" t="str">
         <v>Other</v>
       </c>
       <c r="C133" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D133" t="str">
         <v>Closed</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B134" t="str">
         <v>Other</v>
       </c>
       <c r="C134" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D134" t="str">
         <v>Closed</v>
@@ -2364,13 +2364,13 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Akshay Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B141" t="str">
         <v>Other</v>
       </c>
       <c r="C141" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D141" t="str">
         <v>Closed</v>
@@ -2378,13 +2378,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Vikas Tiwari</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B142" t="str">
         <v>Other</v>
       </c>
       <c r="C142" t="str">
-        <v>vikas.tiwari@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D142" t="str">
         <v>Closed</v>
@@ -2392,13 +2392,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Mahima Manchanda</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B143" t="str">
         <v>Other</v>
       </c>
       <c r="C143" t="str">
-        <v>mahima@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D143" t="str">
         <v>Closed</v>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Bhole Yadav</v>
+        <v>Vikas Tiwari</v>
       </c>
       <c r="B144" t="str">
         <v>Other</v>
       </c>
       <c r="C144" t="str">
-        <v>bhola@awlindia.com</v>
+        <v>vikas.tiwari@awlindia.com</v>
       </c>
       <c r="D144" t="str">
         <v>Closed</v>
@@ -2420,13 +2420,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Punit</v>
+        <v>Mahima Manchanda</v>
       </c>
       <c r="B145" t="str">
         <v>Other</v>
       </c>
       <c r="C145" t="str">
-        <v>punit@awlindia.com</v>
+        <v>mahima@awlindia.com</v>
       </c>
       <c r="D145" t="str">
         <v>Closed</v>
@@ -2434,13 +2434,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Varun Monga</v>
+        <v>Bhole Yadav</v>
       </c>
       <c r="B146" t="str">
         <v>Other</v>
       </c>
       <c r="C146" t="str">
-        <v>varun@awlindia.com</v>
+        <v>bhola@awlindia.com</v>
       </c>
       <c r="D146" t="str">
         <v>Closed</v>
@@ -2448,13 +2448,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Subham Singh</v>
+        <v>Punit</v>
       </c>
       <c r="B147" t="str">
         <v>Other</v>
       </c>
       <c r="C147" t="str">
-        <v>subham@awlindia.com</v>
+        <v>punit@awlindia.com</v>
       </c>
       <c r="D147" t="str">
         <v>Closed</v>
@@ -2462,13 +2462,13 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Samridhi Pandey</v>
+        <v>Varun Monga</v>
       </c>
       <c r="B148" t="str">
         <v>Other</v>
       </c>
       <c r="C148" t="str">
-        <v>samridhi@awlindia.com</v>
+        <v>varun@awlindia.com</v>
       </c>
       <c r="D148" t="str">
         <v>Closed</v>
@@ -2476,13 +2476,13 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Pooja Rawat</v>
+        <v>Subham Singh</v>
       </c>
       <c r="B149" t="str">
         <v>Other</v>
       </c>
       <c r="C149" t="str">
-        <v>pooja@awlindia.com</v>
+        <v>subham@awlindia.com</v>
       </c>
       <c r="D149" t="str">
         <v>Closed</v>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Krishan Gopal</v>
+        <v>Samridhi Pandey</v>
       </c>
       <c r="B150" t="str">
         <v>Other</v>
       </c>
       <c r="C150" t="str">
-        <v>krishan@awlindia.com</v>
+        <v>samridhi@awlindia.com</v>
       </c>
       <c r="D150" t="str">
         <v>Closed</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Punit</v>
+        <v>Pooja Rawat</v>
       </c>
       <c r="B151" t="str">
         <v>Other</v>
       </c>
       <c r="C151" t="str">
-        <v>punit@awlindia.com</v>
+        <v>pooja@awlindia.com</v>
       </c>
       <c r="D151" t="str">
         <v>Closed</v>
@@ -2518,13 +2518,13 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Manish Kumar</v>
+        <v>Krishan Gopal</v>
       </c>
       <c r="B152" t="str">
         <v>Other</v>
       </c>
       <c r="C152" t="str">
-        <v>manish@awlindia.com</v>
+        <v>krishan@awlindia.com</v>
       </c>
       <c r="D152" t="str">
         <v>Closed</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>IT SUPPORT</v>
+        <v>Punit</v>
       </c>
       <c r="B153" t="str">
         <v>Other</v>
       </c>
       <c r="C153" t="str">
-        <v>support@awlindia.com</v>
+        <v>punit@awlindia.com</v>
       </c>
       <c r="D153" t="str">
         <v>Closed</v>
@@ -2546,13 +2546,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>IT SUPPORT</v>
+        <v>Manish Kumar</v>
       </c>
       <c r="B154" t="str">
         <v>Other</v>
       </c>
       <c r="C154" t="str">
-        <v>support@awlindia.com</v>
+        <v>manish@awlindia.com</v>
       </c>
       <c r="D154" t="str">
         <v>Closed</v>
@@ -2602,13 +2602,13 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Priya Pathak</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B158" t="str">
         <v>Other</v>
       </c>
       <c r="C158" t="str">
-        <v>priya@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D158" t="str">
         <v>Closed</v>
@@ -2616,13 +2616,13 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Sakshi Gupta</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B159" t="str">
         <v>Other</v>
       </c>
       <c r="C159" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D159" t="str">
         <v>Closed</v>
@@ -2630,13 +2630,13 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Makhan Singh</v>
+        <v>Priya Pathak</v>
       </c>
       <c r="B160" t="str">
         <v>Other</v>
       </c>
       <c r="C160" t="str">
-        <v>makhan@awlindia.com</v>
+        <v>priya@awlindia.com</v>
       </c>
       <c r="D160" t="str">
         <v>Closed</v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Rupesh Kumar</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B161" t="str">
         <v>Other</v>
       </c>
       <c r="C161" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D161" t="str">
         <v>Closed</v>
@@ -2658,13 +2658,13 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>IT SUPPORT</v>
+        <v>Makhan Singh</v>
       </c>
       <c r="B162" t="str">
         <v>Other</v>
       </c>
       <c r="C162" t="str">
-        <v>support@awlindia.com</v>
+        <v>makhan@awlindia.com</v>
       </c>
       <c r="D162" t="str">
         <v>Closed</v>
@@ -2672,13 +2672,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B163" t="str">
         <v>Other</v>
       </c>
       <c r="C163" t="str">
-        <v>support@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D163" t="str">
         <v>Closed</v>
@@ -2700,13 +2700,13 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B165" t="str">
         <v>Other</v>
       </c>
       <c r="C165" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D165" t="str">
         <v>Closed</v>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B166" t="str">
         <v>Other</v>
       </c>
       <c r="C166" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D166" t="str">
         <v>Closed</v>
@@ -2728,13 +2728,13 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B167" t="str">
         <v>Other</v>
       </c>
       <c r="C167" t="str">
-        <v>support@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D167" t="str">
         <v>Closed</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B168" t="str">
         <v>Other</v>
       </c>
       <c r="C168" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D168" t="str">
         <v>Closed</v>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B171" t="str">
         <v>Other</v>
       </c>
       <c r="C171" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D171" t="str">
         <v>Closed</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B172" t="str">
         <v>Other</v>
       </c>
       <c r="C172" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D172" t="str">
         <v>Closed</v>
@@ -2812,13 +2812,13 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Bhole Yadav</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B173" t="str">
         <v>Other</v>
       </c>
       <c r="C173" t="str">
-        <v>bhola@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D173" t="str">
         <v>Closed</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B174" t="str">
         <v>Other</v>
       </c>
       <c r="C174" t="str">
-        <v>support@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D174" t="str">
         <v>Closed</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>IT SUPPORT</v>
+        <v>Bhole Yadav</v>
       </c>
       <c r="B175" t="str">
         <v>Other</v>
       </c>
       <c r="C175" t="str">
-        <v>support@awlindia.com</v>
+        <v>bhola@awlindia.com</v>
       </c>
       <c r="D175" t="str">
         <v>Closed</v>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B176" t="str">
         <v>Other</v>
       </c>
       <c r="C176" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D176" t="str">
         <v>Closed</v>
@@ -2882,13 +2882,13 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Jyoti Goel</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B178" t="str">
         <v>Other</v>
       </c>
       <c r="C178" t="str">
-        <v>jyoti@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D178" t="str">
         <v>Closed</v>
@@ -2896,13 +2896,13 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Prashant Srivastava</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B179" t="str">
         <v>Other</v>
       </c>
       <c r="C179" t="str">
-        <v>dev.prashant@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D179" t="str">
         <v>Closed</v>
@@ -2910,13 +2910,13 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Mahima Manchanda</v>
+        <v>Jyoti Goel</v>
       </c>
       <c r="B180" t="str">
         <v>Other</v>
       </c>
       <c r="C180" t="str">
-        <v>mahima@awlindia.com</v>
+        <v>jyoti@awlindia.com</v>
       </c>
       <c r="D180" t="str">
         <v>Closed</v>
@@ -2924,13 +2924,13 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>Prachi Pitliya</v>
+        <v>Prashant Srivastava</v>
       </c>
       <c r="B181" t="str">
         <v>Other</v>
       </c>
       <c r="C181" t="str">
-        <v>prachi@awlindia.com</v>
+        <v>dev.prashant@awlindia.com</v>
       </c>
       <c r="D181" t="str">
         <v>Closed</v>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>IT SUPPORT</v>
+        <v>Mahima Manchanda</v>
       </c>
       <c r="B182" t="str">
         <v>Other</v>
       </c>
       <c r="C182" t="str">
-        <v>support@awlindia.com</v>
+        <v>mahima@awlindia.com</v>
       </c>
       <c r="D182" t="str">
         <v>Closed</v>
@@ -2952,13 +2952,13 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Varun Maheshwari</v>
+        <v>Prachi Pitliya</v>
       </c>
       <c r="B183" t="str">
         <v>Other</v>
       </c>
       <c r="C183" t="str">
-        <v>vmaheshwari@awlindia.com</v>
+        <v>prachi@awlindia.com</v>
       </c>
       <c r="D183" t="str">
         <v>Closed</v>
@@ -2966,13 +2966,13 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Ayushi Bhatnagar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B184" t="str">
         <v>Other</v>
       </c>
       <c r="C184" t="str">
-        <v>ayushi@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D184" t="str">
         <v>Closed</v>
@@ -2980,13 +2980,13 @@
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Vishal Kumar</v>
+        <v>Varun Maheshwari</v>
       </c>
       <c r="B185" t="str">
         <v>Other</v>
       </c>
       <c r="C185" t="str">
-        <v>dev.vishal@awlindia.com</v>
+        <v>vmaheshwari@awlindia.com</v>
       </c>
       <c r="D185" t="str">
         <v>Closed</v>
@@ -2994,13 +2994,13 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Sameer Ananta Kondilkar</v>
+        <v>Ayushi Bhatnagar</v>
       </c>
       <c r="B186" t="str">
         <v>Other</v>
       </c>
       <c r="C186" t="str">
-        <v>sameerk@awlindia.com</v>
+        <v>ayushi@awlindia.com</v>
       </c>
       <c r="D186" t="str">
         <v>Closed</v>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vishal Kumar</v>
       </c>
       <c r="B187" t="str">
         <v>Other</v>
       </c>
       <c r="C187" t="str">
-        <v>support@awlindia.com</v>
+        <v>dev.vishal@awlindia.com</v>
       </c>
       <c r="D187" t="str">
         <v>Closed</v>
@@ -3022,13 +3022,13 @@
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Parshant Kumar</v>
+        <v>Sameer Ananta Kondilkar</v>
       </c>
       <c r="B188" t="str">
         <v>Other</v>
       </c>
       <c r="C188" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>sameerk@awlindia.com</v>
       </c>
       <c r="D188" t="str">
         <v>Closed</v>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Pooran Singh Bisht</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B189" t="str">
         <v>Other</v>
       </c>
       <c r="C189" t="str">
-        <v>pooran@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D189" t="str">
         <v>Closed</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Amit Sharma</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B190" t="str">
         <v>Other</v>
       </c>
       <c r="C190" t="str">
-        <v>amit.sharma@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D190" t="str">
         <v>Closed</v>
@@ -3064,13 +3064,13 @@
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Deen Dayal Singh</v>
+        <v>Pooran Singh Bisht</v>
       </c>
       <c r="B191" t="str">
         <v>Other</v>
       </c>
       <c r="C191" t="str">
-        <v>ddsingh@awlindia.com</v>
+        <v>pooran@awlindia.com</v>
       </c>
       <c r="D191" t="str">
         <v>Closed</v>
@@ -3078,13 +3078,13 @@
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>Amit Sharma</v>
       </c>
       <c r="B192" t="str">
         <v>Other</v>
       </c>
       <c r="C192" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>amit.sharma@awlindia.com</v>
       </c>
       <c r="D192" t="str">
         <v>Closed</v>
@@ -3092,13 +3092,13 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Vijay Vyankat Mali</v>
+        <v>Deen Dayal Singh</v>
       </c>
       <c r="B193" t="str">
         <v>Other</v>
       </c>
       <c r="C193" t="str">
-        <v>vijay@awlindia.com</v>
+        <v>ddsingh@awlindia.com</v>
       </c>
       <c r="D193" t="str">
         <v>Closed</v>
@@ -3106,13 +3106,13 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Nishant Goyal</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B194" t="str">
         <v>Other</v>
       </c>
       <c r="C194" t="str">
-        <v>nishant@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D194" t="str">
         <v>Closed</v>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Ramesh Chandra Panigrahi</v>
+        <v>Vijay Vyankat Mali</v>
       </c>
       <c r="B195" t="str">
         <v>Other</v>
       </c>
       <c r="C195" t="str">
-        <v>ramesh@awlindia.com</v>
+        <v>vijay@awlindia.com</v>
       </c>
       <c r="D195" t="str">
         <v>Closed</v>
@@ -3134,13 +3134,13 @@
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Krishna Borah</v>
+        <v>Nishant Goyal</v>
       </c>
       <c r="B196" t="str">
         <v>Other</v>
       </c>
       <c r="C196" t="str">
-        <v>Krishna@awlindia.com</v>
+        <v>nishant@awlindia.com</v>
       </c>
       <c r="D196" t="str">
         <v>Closed</v>
@@ -3148,13 +3148,13 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>IT SUPPORT</v>
+        <v>Ramesh Chandra Panigrahi</v>
       </c>
       <c r="B197" t="str">
         <v>Other</v>
       </c>
       <c r="C197" t="str">
-        <v>support@awlindia.com</v>
+        <v>ramesh@awlindia.com</v>
       </c>
       <c r="D197" t="str">
         <v>Closed</v>
@@ -3162,13 +3162,13 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>IT SUPPORT</v>
+        <v>Krishna Borah</v>
       </c>
       <c r="B198" t="str">
         <v>Other</v>
       </c>
       <c r="C198" t="str">
-        <v>support@awlindia.com</v>
+        <v>Krishna@awlindia.com</v>
       </c>
       <c r="D198" t="str">
         <v>Closed</v>
@@ -3190,13 +3190,13 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B200" t="str">
         <v>Other</v>
       </c>
       <c r="C200" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D200" t="str">
         <v>Closed</v>
@@ -3204,13 +3204,13 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B201" t="str">
         <v>Other</v>
       </c>
       <c r="C201" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D201" t="str">
         <v>Closed</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Manish Kumar</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B202" t="str">
         <v>Other</v>
       </c>
       <c r="C202" t="str">
-        <v>manish@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D202" t="str">
         <v>Closed</v>
@@ -3232,13 +3232,13 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B203" t="str">
         <v>Other</v>
       </c>
       <c r="C203" t="str">
-        <v>support@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D203" t="str">
         <v>Closed</v>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Jyoti Goel</v>
+        <v>Manish Kumar</v>
       </c>
       <c r="B204" t="str">
         <v>Other</v>
       </c>
       <c r="C204" t="str">
-        <v>jyoti@awlindia.com</v>
+        <v>manish@awlindia.com</v>
       </c>
       <c r="D204" t="str">
         <v>Closed</v>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jyoti Goel</v>
       </c>
       <c r="B206" t="str">
         <v>Other</v>
       </c>
       <c r="C206" t="str">
-        <v>support@awlindia.com</v>
+        <v>jyoti@awlindia.com</v>
       </c>
       <c r="D206" t="str">
         <v>Closed</v>
@@ -3316,13 +3316,13 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Varun Maheshwari</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B209" t="str">
         <v>Other</v>
       </c>
       <c r="C209" t="str">
-        <v>vmaheshwari@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D209" t="str">
         <v>Closed</v>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Varun Maheshwari</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B210" t="str">
         <v>Other</v>
       </c>
       <c r="C210" t="str">
-        <v>vmaheshwari@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D210" t="str">
         <v>Closed</v>
@@ -3344,13 +3344,13 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>IT SUPPORT</v>
+        <v>Varun Maheshwari</v>
       </c>
       <c r="B211" t="str">
         <v>Other</v>
       </c>
       <c r="C211" t="str">
-        <v>support@awlindia.com</v>
+        <v>vmaheshwari@awlindia.com</v>
       </c>
       <c r="D211" t="str">
         <v>Closed</v>
@@ -3358,13 +3358,13 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Amresh Singh</v>
+        <v>Varun Maheshwari</v>
       </c>
       <c r="B212" t="str">
         <v>Other</v>
       </c>
       <c r="C212" t="str">
-        <v>Amresh.singh@ilogsolution.com</v>
+        <v>vmaheshwari@awlindia.com</v>
       </c>
       <c r="D212" t="str">
         <v>Closed</v>
@@ -3372,13 +3372,13 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Samridhi Pandey</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B213" t="str">
         <v>Other</v>
       </c>
       <c r="C213" t="str">
-        <v>samridhi@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D213" t="str">
         <v>Closed</v>
@@ -3386,13 +3386,13 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Akshay Kumar</v>
+        <v>Amresh Singh</v>
       </c>
       <c r="B214" t="str">
         <v>Other</v>
       </c>
       <c r="C214" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>Amresh.singh@ilogsolution.com</v>
       </c>
       <c r="D214" t="str">
         <v>Closed</v>
@@ -3400,13 +3400,13 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Radhika Patel</v>
+        <v>Samridhi Pandey</v>
       </c>
       <c r="B215" t="str">
         <v>Other</v>
       </c>
       <c r="C215" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>samridhi@awlindia.com</v>
       </c>
       <c r="D215" t="str">
         <v>Closed</v>
@@ -3414,13 +3414,13 @@
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>MD. Munna</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B216" t="str">
         <v>Other</v>
       </c>
       <c r="C216" t="str">
-        <v>munna@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D216" t="str">
         <v>Closed</v>
@@ -3428,13 +3428,13 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Subham Singh</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B217" t="str">
         <v>Other</v>
       </c>
       <c r="C217" t="str">
-        <v>subham@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D217" t="str">
         <v>Closed</v>
@@ -3442,13 +3442,13 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Subham Singh</v>
+        <v>MD. Munna</v>
       </c>
       <c r="B218" t="str">
         <v>Other</v>
       </c>
       <c r="C218" t="str">
-        <v>subham@awlindia.com</v>
+        <v>munna@awlindia.com</v>
       </c>
       <c r="D218" t="str">
         <v>Closed</v>
@@ -3470,13 +3470,13 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>IT SUPPORT</v>
+        <v>Subham Singh</v>
       </c>
       <c r="B220" t="str">
         <v>Other</v>
       </c>
       <c r="C220" t="str">
-        <v>support@awlindia.com</v>
+        <v>subham@awlindia.com</v>
       </c>
       <c r="D220" t="str">
         <v>Closed</v>
@@ -3498,13 +3498,13 @@
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Subham Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B222" t="str">
         <v>Other</v>
       </c>
       <c r="C222" t="str">
-        <v>subham@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D222" t="str">
         <v>Closed</v>
@@ -3512,13 +3512,13 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Radhika Patel</v>
+        <v>Subham Singh</v>
       </c>
       <c r="B223" t="str">
         <v>Other</v>
       </c>
       <c r="C223" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>subham@awlindia.com</v>
       </c>
       <c r="D223" t="str">
         <v>Closed</v>
@@ -3526,13 +3526,13 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Parshant Kumar</v>
+        <v>Subham Singh</v>
       </c>
       <c r="B224" t="str">
         <v>Other</v>
       </c>
       <c r="C224" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>subham@awlindia.com</v>
       </c>
       <c r="D224" t="str">
         <v>Closed</v>
@@ -3540,13 +3540,13 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>IT SUPPORT</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B225" t="str">
         <v>Other</v>
       </c>
       <c r="C225" t="str">
-        <v>support@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D225" t="str">
         <v>Closed</v>
@@ -3554,13 +3554,13 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Gurbachan Singh</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B226" t="str">
         <v>Other</v>
       </c>
       <c r="C226" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D226" t="str">
         <v>Closed</v>
@@ -3568,13 +3568,13 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Parshant Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B227" t="str">
         <v>Other</v>
       </c>
       <c r="C227" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D227" t="str">
         <v>Closed</v>
@@ -3582,13 +3582,13 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Parshant Kumar</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B228" t="str">
         <v>Other</v>
       </c>
       <c r="C228" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D228" t="str">
         <v>Closed</v>
@@ -3596,13 +3596,13 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>IT SUPPORT</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B229" t="str">
         <v>Other</v>
       </c>
       <c r="C229" t="str">
-        <v>support@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D229" t="str">
         <v>Closed</v>
@@ -3610,13 +3610,13 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>IT SUPPORT</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B230" t="str">
         <v>Other</v>
       </c>
       <c r="C230" t="str">
-        <v>support@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D230" t="str">
         <v>Closed</v>
@@ -3638,13 +3638,13 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B232" t="str">
         <v>Other</v>
       </c>
       <c r="C232" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D232" t="str">
         <v>Closed</v>
@@ -3666,13 +3666,13 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Akshay Kumar</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B234" t="str">
         <v>Other</v>
       </c>
       <c r="C234" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D234" t="str">
         <v>Closed</v>
@@ -3680,13 +3680,13 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Parshant Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B235" t="str">
         <v>Other</v>
       </c>
       <c r="C235" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D235" t="str">
         <v>Closed</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Parshant Kumar</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B236" t="str">
         <v>Other</v>
       </c>
       <c r="C236" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D236" t="str">
         <v>Closed</v>
@@ -3708,13 +3708,13 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Kunal V Dhale</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B237" t="str">
         <v>Other</v>
       </c>
       <c r="C237" t="str">
-        <v>kunal@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D237" t="str">
         <v>Closed</v>
@@ -3722,13 +3722,13 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Abhishek Pal</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B238" t="str">
         <v>Other</v>
       </c>
       <c r="C238" t="str">
-        <v>support@ilogsolution.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D238" t="str">
         <v>Closed</v>
@@ -3736,13 +3736,13 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Abhishek Pal</v>
+        <v>Kunal V Dhale</v>
       </c>
       <c r="B239" t="str">
         <v>Other</v>
       </c>
       <c r="C239" t="str">
-        <v>support@ilogsolution.com</v>
+        <v>kunal@awlindia.com</v>
       </c>
       <c r="D239" t="str">
         <v>Closed</v>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>IT SUPPORT</v>
+        <v>Abhishek Pal</v>
       </c>
       <c r="B240" t="str">
         <v>Other</v>
       </c>
       <c r="C240" t="str">
-        <v>support@awlindia.com</v>
+        <v>support@ilogsolution.com</v>
       </c>
       <c r="D240" t="str">
         <v>Closed</v>
@@ -3764,13 +3764,13 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Vishal Kumar</v>
+        <v>Abhishek Pal</v>
       </c>
       <c r="B241" t="str">
         <v>Other</v>
       </c>
       <c r="C241" t="str">
-        <v>dev.vishal@awlindia.com</v>
+        <v>support@ilogsolution.com</v>
       </c>
       <c r="D241" t="str">
         <v>Closed</v>
@@ -3778,13 +3778,13 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Vishal Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B242" t="str">
         <v>Other</v>
       </c>
       <c r="C242" t="str">
-        <v>dev.vishal@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D242" t="str">
         <v>Closed</v>
@@ -3806,13 +3806,13 @@
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vishal Kumar</v>
       </c>
       <c r="B244" t="str">
         <v>Other</v>
       </c>
       <c r="C244" t="str">
-        <v>support@awlindia.com</v>
+        <v>dev.vishal@awlindia.com</v>
       </c>
       <c r="D244" t="str">
         <v>Closed</v>
@@ -3820,13 +3820,13 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vishal Kumar</v>
       </c>
       <c r="B245" t="str">
         <v>Other</v>
       </c>
       <c r="C245" t="str">
-        <v>support@awlindia.com</v>
+        <v>dev.vishal@awlindia.com</v>
       </c>
       <c r="D245" t="str">
         <v>Closed</v>
@@ -3834,13 +3834,13 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B246" t="str">
         <v>Other</v>
       </c>
       <c r="C246" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D246" t="str">
         <v>Closed</v>
@@ -3862,13 +3862,13 @@
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>Ranjit Rai</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B248" t="str">
         <v>Other</v>
       </c>
       <c r="C248" t="str">
-        <v>ranjeet@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D248" t="str">
         <v>Closed</v>
@@ -3876,13 +3876,13 @@
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>Ranjit Rai</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B249" t="str">
         <v>Other</v>
       </c>
       <c r="C249" t="str">
-        <v>ranjeet@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D249" t="str">
         <v>Closed</v>
@@ -3890,13 +3890,13 @@
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>IT SUPPORT</v>
+        <v>Ranjit Rai</v>
       </c>
       <c r="B250" t="str">
         <v>Other</v>
       </c>
       <c r="C250" t="str">
-        <v>support@awlindia.com</v>
+        <v>ranjeet@awlindia.com</v>
       </c>
       <c r="D250" t="str">
         <v>Closed</v>
@@ -3904,13 +3904,13 @@
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>IT SUPPORT</v>
+        <v>Ranjit Rai</v>
       </c>
       <c r="B251" t="str">
         <v>Other</v>
       </c>
       <c r="C251" t="str">
-        <v>support@awlindia.com</v>
+        <v>ranjeet@awlindia.com</v>
       </c>
       <c r="D251" t="str">
         <v>Closed</v>
@@ -3946,13 +3946,13 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B254" t="str">
         <v>Other</v>
       </c>
       <c r="C254" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D254" t="str">
         <v>Closed</v>
@@ -3960,13 +3960,13 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>Akshay Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B255" t="str">
         <v>Other</v>
       </c>
       <c r="C255" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D255" t="str">
         <v>Closed</v>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B256" t="str">
         <v>Other</v>
       </c>
       <c r="C256" t="str">
-        <v>support@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D256" t="str">
         <v>Closed</v>
@@ -3988,13 +3988,13 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>IT SUPPORT</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B257" t="str">
         <v>Other</v>
       </c>
       <c r="C257" t="str">
-        <v>support@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D257" t="str">
         <v>Closed</v>
@@ -4002,13 +4002,13 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>Nadeem Khan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B258" t="str">
         <v>Other</v>
       </c>
       <c r="C258" t="str">
-        <v>nadeem@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D258" t="str">
         <v>Closed</v>
@@ -4016,13 +4016,13 @@
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>Nadeem Khan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B259" t="str">
         <v>Other</v>
       </c>
       <c r="C259" t="str">
-        <v>nadeem@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D259" t="str">
         <v>Closed</v>
@@ -4044,13 +4044,13 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>Dinesh Kumar</v>
+        <v>Nadeem Khan</v>
       </c>
       <c r="B261" t="str">
         <v>Other</v>
       </c>
       <c r="C261" t="str">
-        <v>dinesh@awlindia.com</v>
+        <v>nadeem@awlindia.com</v>
       </c>
       <c r="D261" t="str">
         <v>Closed</v>
@@ -4058,13 +4058,13 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>Dinesh Kumar</v>
+        <v>Nadeem Khan</v>
       </c>
       <c r="B262" t="str">
         <v>Other</v>
       </c>
       <c r="C262" t="str">
-        <v>dinesh@awlindia.com</v>
+        <v>nadeem@awlindia.com</v>
       </c>
       <c r="D262" t="str">
         <v>Closed</v>
@@ -4072,13 +4072,13 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>Jawed</v>
+        <v>Dinesh Kumar</v>
       </c>
       <c r="B263" t="str">
         <v>Other</v>
       </c>
       <c r="C263" t="str">
-        <v>javed@awlindia.com</v>
+        <v>dinesh@awlindia.com</v>
       </c>
       <c r="D263" t="str">
         <v>Closed</v>
@@ -4086,13 +4086,13 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>Jawed</v>
+        <v>Dinesh Kumar</v>
       </c>
       <c r="B264" t="str">
         <v>Other</v>
       </c>
       <c r="C264" t="str">
-        <v>javed@awlindia.com</v>
+        <v>dinesh@awlindia.com</v>
       </c>
       <c r="D264" t="str">
         <v>Closed</v>
@@ -4100,13 +4100,13 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>Nitin Poddar</v>
+        <v>Jawed</v>
       </c>
       <c r="B265" t="str">
         <v>Other</v>
       </c>
       <c r="C265" t="str">
-        <v>npoddar@awlindia.com</v>
+        <v>javed@awlindia.com</v>
       </c>
       <c r="D265" t="str">
         <v>Closed</v>
@@ -4114,13 +4114,13 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>Nitin Poddar</v>
+        <v>Jawed</v>
       </c>
       <c r="B266" t="str">
         <v>Other</v>
       </c>
       <c r="C266" t="str">
-        <v>npoddar@awlindia.com</v>
+        <v>javed@awlindia.com</v>
       </c>
       <c r="D266" t="str">
         <v>Closed</v>
@@ -4128,13 +4128,13 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>Neeraj Kumar</v>
+        <v>Nitin Poddar</v>
       </c>
       <c r="B267" t="str">
         <v>Other</v>
       </c>
       <c r="C267" t="str">
-        <v>neeraj@awlindia.com</v>
+        <v>npoddar@awlindia.com</v>
       </c>
       <c r="D267" t="str">
         <v>Closed</v>
@@ -4142,13 +4142,13 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>Neeraj Kumar</v>
+        <v>Nitin Poddar</v>
       </c>
       <c r="B268" t="str">
         <v>Other</v>
       </c>
       <c r="C268" t="str">
-        <v>neeraj@awlindia.com</v>
+        <v>npoddar@awlindia.com</v>
       </c>
       <c r="D268" t="str">
         <v>Closed</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>Ankush Rastogi</v>
+        <v>Neeraj Kumar</v>
       </c>
       <c r="B269" t="str">
         <v>Other</v>
       </c>
       <c r="C269" t="str">
-        <v>ankush@awlindia.com</v>
+        <v>neeraj@awlindia.com</v>
       </c>
       <c r="D269" t="str">
         <v>Closed</v>
@@ -4170,13 +4170,13 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>Ankush Rastogi</v>
+        <v>Neeraj Kumar</v>
       </c>
       <c r="B270" t="str">
         <v>Other</v>
       </c>
       <c r="C270" t="str">
-        <v>ankush@awlindia.com</v>
+        <v>neeraj@awlindia.com</v>
       </c>
       <c r="D270" t="str">
         <v>Closed</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>Lakshmi Narayan Sharma</v>
+        <v>Ankush Rastogi</v>
       </c>
       <c r="B271" t="str">
         <v>Other</v>
       </c>
       <c r="C271" t="str">
-        <v>lnsharma@awlindia.com</v>
+        <v>ankush@awlindia.com</v>
       </c>
       <c r="D271" t="str">
         <v>Closed</v>
@@ -4198,13 +4198,13 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Lakshmi Narayan Sharma</v>
+        <v>Ankush Rastogi</v>
       </c>
       <c r="B272" t="str">
         <v>Other</v>
       </c>
       <c r="C272" t="str">
-        <v>lnsharma@awlindia.com</v>
+        <v>ankush@awlindia.com</v>
       </c>
       <c r="D272" t="str">
         <v>Closed</v>
@@ -4226,13 +4226,13 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>IT SUPPORT</v>
+        <v>Lakshmi Narayan Sharma</v>
       </c>
       <c r="B274" t="str">
         <v>Other</v>
       </c>
       <c r="C274" t="str">
-        <v>support@awlindia.com</v>
+        <v>lnsharma@awlindia.com</v>
       </c>
       <c r="D274" t="str">
         <v>Closed</v>
@@ -4240,13 +4240,13 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>IT SUPPORT</v>
+        <v>Lakshmi Narayan Sharma</v>
       </c>
       <c r="B275" t="str">
         <v>Other</v>
       </c>
       <c r="C275" t="str">
-        <v>support@awlindia.com</v>
+        <v>lnsharma@awlindia.com</v>
       </c>
       <c r="D275" t="str">
         <v>Closed</v>
@@ -4268,13 +4268,13 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B277" t="str">
         <v>Other</v>
       </c>
       <c r="C277" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D277" t="str">
         <v>Closed</v>
@@ -4296,13 +4296,13 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>Varun Monga</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B279" t="str">
         <v>Other</v>
       </c>
       <c r="C279" t="str">
-        <v>varun@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D279" t="str">
         <v>Closed</v>
@@ -4324,13 +4324,13 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>Hemant Kumar</v>
+        <v>Varun Monga</v>
       </c>
       <c r="B281" t="str">
         <v>Other</v>
       </c>
       <c r="C281" t="str">
-        <v>hemantk@awlindia.com</v>
+        <v>varun@awlindia.com</v>
       </c>
       <c r="D281" t="str">
         <v>Closed</v>
@@ -4352,13 +4352,13 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>IT SUPPORT</v>
+        <v>Hemant Kumar</v>
       </c>
       <c r="B283" t="str">
-        <v>Amplifier, (059881F81220034AE)</v>
+        <v>Other</v>
       </c>
       <c r="C283" t="str">
-        <v>support@awlindia.com</v>
+        <v>hemantk@awlindia.com</v>
       </c>
       <c r="D283" t="str">
         <v>Closed</v>
@@ -4380,13 +4380,13 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>Hemant Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B285" t="str">
-        <v>Other</v>
+        <v>Amplifier, (059881F81220034AE)</v>
       </c>
       <c r="C285" t="str">
-        <v>hemantk@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D285" t="str">
         <v>Closed</v>
@@ -4408,13 +4408,13 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>Hemant Kumar</v>
       </c>
       <c r="B287" t="str">
         <v>Other</v>
       </c>
       <c r="C287" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>hemantk@awlindia.com</v>
       </c>
       <c r="D287" t="str">
         <v>Closed</v>
@@ -4436,13 +4436,13 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>Makhan Singh</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B289" t="str">
         <v>Other</v>
       </c>
       <c r="C289" t="str">
-        <v>makhan@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D289" t="str">
         <v>Closed</v>
@@ -4450,13 +4450,13 @@
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>Hemant Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B290" t="str">
         <v>Other</v>
       </c>
       <c r="C290" t="str">
-        <v>hemantk@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D290" t="str">
         <v>Closed</v>
@@ -4464,13 +4464,13 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>Hemant Kumar</v>
+        <v>Makhan Singh</v>
       </c>
       <c r="B291" t="str">
         <v>Other</v>
       </c>
       <c r="C291" t="str">
-        <v>hemantk@awlindia.com</v>
+        <v>makhan@awlindia.com</v>
       </c>
       <c r="D291" t="str">
         <v>Closed</v>
@@ -4478,13 +4478,13 @@
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>Raghunath</v>
+        <v>Hemant Kumar</v>
       </c>
       <c r="B292" t="str">
         <v>Other</v>
       </c>
       <c r="C292" t="str">
-        <v>raghu@awlindia.com</v>
+        <v>hemantk@awlindia.com</v>
       </c>
       <c r="D292" t="str">
         <v>Closed</v>
@@ -4492,13 +4492,13 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>Pooran Singh Bisht</v>
+        <v>Hemant Kumar</v>
       </c>
       <c r="B293" t="str">
         <v>Other</v>
       </c>
       <c r="C293" t="str">
-        <v>pooran@awlindia.com</v>
+        <v>hemantk@awlindia.com</v>
       </c>
       <c r="D293" t="str">
         <v>Closed</v>
@@ -4506,13 +4506,13 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>Lovely Mehra</v>
+        <v>Raghunath</v>
       </c>
       <c r="B294" t="str">
         <v>Other</v>
       </c>
       <c r="C294" t="str">
-        <v>lovely@awlindia.com</v>
+        <v>raghu@awlindia.com</v>
       </c>
       <c r="D294" t="str">
         <v>Closed</v>
@@ -4520,13 +4520,13 @@
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pooran Singh Bisht</v>
       </c>
       <c r="B295" t="str">
         <v>Other</v>
       </c>
       <c r="C295" t="str">
-        <v>support@awlindia.com</v>
+        <v>pooran@awlindia.com</v>
       </c>
       <c r="D295" t="str">
         <v>Closed</v>
@@ -4534,13 +4534,13 @@
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>Gurbachan Singh</v>
+        <v>Lovely Mehra</v>
       </c>
       <c r="B296" t="str">
         <v>Other</v>
       </c>
       <c r="C296" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>lovely@awlindia.com</v>
       </c>
       <c r="D296" t="str">
         <v>Closed</v>
@@ -4548,13 +4548,13 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>Monika Bohra</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B297" t="str">
         <v>Other</v>
       </c>
       <c r="C297" t="str">
-        <v>monika.bohra@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D297" t="str">
         <v>Closed</v>
@@ -4562,13 +4562,13 @@
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>Amit Sharma</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B298" t="str">
         <v>Other</v>
       </c>
       <c r="C298" t="str">
-        <v>amit.sharma@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D298" t="str">
         <v>Closed</v>
@@ -4576,13 +4576,13 @@
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>IT SUPPORT</v>
+        <v>Monika Bohra</v>
       </c>
       <c r="B299" t="str">
         <v>Other</v>
       </c>
       <c r="C299" t="str">
-        <v>support@awlindia.com</v>
+        <v>monika.bohra@awlindia.com</v>
       </c>
       <c r="D299" t="str">
         <v>Closed</v>
@@ -4590,13 +4590,13 @@
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>IT SUPPORT</v>
+        <v>Amit Sharma</v>
       </c>
       <c r="B300" t="str">
         <v>Other</v>
       </c>
       <c r="C300" t="str">
-        <v>support@awlindia.com</v>
+        <v>amit.sharma@awlindia.com</v>
       </c>
       <c r="D300" t="str">
         <v>Closed</v>
@@ -4646,13 +4646,13 @@
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>Jahanvi Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B304" t="str">
         <v>Other</v>
       </c>
       <c r="C304" t="str">
-        <v>jahanvi.singh@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D304" t="str">
         <v>Closed</v>
@@ -4660,13 +4660,13 @@
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>Prachi Pitliya</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B305" t="str">
         <v>Other</v>
       </c>
       <c r="C305" t="str">
-        <v>prachi@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D305" t="str">
         <v>Closed</v>
@@ -4674,13 +4674,13 @@
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jahanvi Singh</v>
       </c>
       <c r="B306" t="str">
         <v>Other</v>
       </c>
       <c r="C306" t="str">
-        <v>support@awlindia.com</v>
+        <v>jahanvi.singh@awlindia.com</v>
       </c>
       <c r="D306" t="str">
         <v>Closed</v>
@@ -4688,13 +4688,13 @@
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prachi Pitliya</v>
       </c>
       <c r="B307" t="str">
         <v>Other</v>
       </c>
       <c r="C307" t="str">
-        <v>support@awlindia.com</v>
+        <v>prachi@awlindia.com</v>
       </c>
       <c r="D307" t="str">
         <v>Closed</v>
@@ -4772,13 +4772,13 @@
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>Vinay Srivastav</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B313" t="str">
         <v>Other</v>
       </c>
       <c r="C313" t="str">
-        <v>vinay@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D313" t="str">
         <v>Closed</v>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>Vinay Srivastav</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B314" t="str">
         <v>Other</v>
       </c>
       <c r="C314" t="str">
-        <v>vinay@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D314" t="str">
         <v>Closed</v>
@@ -4800,13 +4800,13 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>Amarendra</v>
+        <v>Vinay Srivastav</v>
       </c>
       <c r="B315" t="str">
         <v>Other</v>
       </c>
       <c r="C315" t="str">
-        <v>amarendra@awlindia.com</v>
+        <v>vinay@awlindia.com</v>
       </c>
       <c r="D315" t="str">
         <v>Closed</v>
@@ -4814,13 +4814,13 @@
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>Amarendra</v>
+        <v>Vinay Srivastav</v>
       </c>
       <c r="B316" t="str">
         <v>Other</v>
       </c>
       <c r="C316" t="str">
-        <v>amarendra@awlindia.com</v>
+        <v>vinay@awlindia.com</v>
       </c>
       <c r="D316" t="str">
         <v>Closed</v>
@@ -4828,13 +4828,13 @@
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>Sunil Kumar</v>
+        <v>Amarendra</v>
       </c>
       <c r="B317" t="str">
         <v>Other</v>
       </c>
       <c r="C317" t="str">
-        <v>sunil@awlindia.com</v>
+        <v>amarendra@awlindia.com</v>
       </c>
       <c r="D317" t="str">
         <v>Closed</v>
@@ -4842,13 +4842,13 @@
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>Sunil Kumar</v>
+        <v>Amarendra</v>
       </c>
       <c r="B318" t="str">
         <v>Other</v>
       </c>
       <c r="C318" t="str">
-        <v>sunil@awlindia.com</v>
+        <v>amarendra@awlindia.com</v>
       </c>
       <c r="D318" t="str">
         <v>Closed</v>
@@ -4856,13 +4856,13 @@
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>Lovely Mehra</v>
+        <v>Sunil Kumar</v>
       </c>
       <c r="B319" t="str">
         <v>Other</v>
       </c>
       <c r="C319" t="str">
-        <v>lovely@awlindia.com</v>
+        <v>sunil@awlindia.com</v>
       </c>
       <c r="D319" t="str">
         <v>Closed</v>
@@ -4870,13 +4870,13 @@
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>Rituraj Pankaj</v>
+        <v>Sunil Kumar</v>
       </c>
       <c r="B320" t="str">
         <v>Other</v>
       </c>
       <c r="C320" t="str">
-        <v>rituraj@awlindia.com</v>
+        <v>sunil@awlindia.com</v>
       </c>
       <c r="D320" t="str">
         <v>Closed</v>
@@ -4884,13 +4884,13 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>Rituraj Pankaj</v>
+        <v>Lovely Mehra</v>
       </c>
       <c r="B321" t="str">
         <v>Other</v>
       </c>
       <c r="C321" t="str">
-        <v>rituraj@awlindia.com</v>
+        <v>lovely@awlindia.com</v>
       </c>
       <c r="D321" t="str">
         <v>Closed</v>
@@ -4898,13 +4898,13 @@
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rituraj Pankaj</v>
       </c>
       <c r="B322" t="str">
         <v>Other</v>
       </c>
       <c r="C322" t="str">
-        <v>support@awlindia.com</v>
+        <v>rituraj@awlindia.com</v>
       </c>
       <c r="D322" t="str">
         <v>Closed</v>
@@ -4912,13 +4912,13 @@
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rituraj Pankaj</v>
       </c>
       <c r="B323" t="str">
         <v>Other</v>
       </c>
       <c r="C323" t="str">
-        <v>support@awlindia.com</v>
+        <v>rituraj@awlindia.com</v>
       </c>
       <c r="D323" t="str">
         <v>Closed</v>
@@ -4926,13 +4926,13 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>Prakash Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B324" t="str">
         <v>Other</v>
       </c>
       <c r="C324" t="str">
-        <v>prakash.patel@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D324" t="str">
         <v>Closed</v>
@@ -4940,13 +4940,13 @@
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>Prakash Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B325" t="str">
         <v>Other</v>
       </c>
       <c r="C325" t="str">
-        <v>prakash.patel@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D325" t="str">
         <v>Closed</v>
@@ -4954,13 +4954,13 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>Pooran Singh Bisht</v>
+        <v>Prakash Patel</v>
       </c>
       <c r="B326" t="str">
         <v>Other</v>
       </c>
       <c r="C326" t="str">
-        <v>pooran@awlindia.com</v>
+        <v>prakash.patel@awlindia.com</v>
       </c>
       <c r="D326" t="str">
         <v>Closed</v>
@@ -4968,13 +4968,13 @@
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>Pooran Singh Bisht</v>
+        <v>Prakash Patel</v>
       </c>
       <c r="B327" t="str">
         <v>Other</v>
       </c>
       <c r="C327" t="str">
-        <v>pooran@awlindia.com</v>
+        <v>prakash.patel@awlindia.com</v>
       </c>
       <c r="D327" t="str">
         <v>Closed</v>
@@ -4982,13 +4982,13 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pooran Singh Bisht</v>
       </c>
       <c r="B328" t="str">
         <v>Other</v>
       </c>
       <c r="C328" t="str">
-        <v>support@awlindia.com</v>
+        <v>pooran@awlindia.com</v>
       </c>
       <c r="D328" t="str">
         <v>Closed</v>
@@ -4996,13 +4996,13 @@
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>Jyoti Panday</v>
+        <v>Pooran Singh Bisht</v>
       </c>
       <c r="B329" t="str">
         <v>Other</v>
       </c>
       <c r="C329" t="str">
-        <v>jyoti.panday@awlindia.com</v>
+        <v>pooran@awlindia.com</v>
       </c>
       <c r="D329" t="str">
         <v>Closed</v>
@@ -5010,13 +5010,13 @@
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>Jyoti Panday</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B330" t="str">
         <v>Other</v>
       </c>
       <c r="C330" t="str">
-        <v>jyoti.panday@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D330" t="str">
         <v>Closed</v>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jyoti Panday</v>
       </c>
       <c r="B331" t="str">
         <v>Other</v>
       </c>
       <c r="C331" t="str">
-        <v>support@awlindia.com</v>
+        <v>jyoti.panday@awlindia.com</v>
       </c>
       <c r="D331" t="str">
         <v>Closed</v>
@@ -5038,13 +5038,13 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jyoti Panday</v>
       </c>
       <c r="B332" t="str">
         <v>Other</v>
       </c>
       <c r="C332" t="str">
-        <v>support@awlindia.com</v>
+        <v>jyoti.panday@awlindia.com</v>
       </c>
       <c r="D332" t="str">
         <v>Closed</v>
@@ -5094,13 +5094,13 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>Punit</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B336" t="str">
         <v>Other</v>
       </c>
       <c r="C336" t="str">
-        <v>punit@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D336" t="str">
         <v>Closed</v>
@@ -5108,13 +5108,13 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>Sunil Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B337" t="str">
         <v>Other</v>
       </c>
       <c r="C337" t="str">
-        <v>sunil@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D337" t="str">
         <v>Closed</v>
@@ -5122,13 +5122,13 @@
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>Rajini Nagaiah</v>
+        <v>Punit</v>
       </c>
       <c r="B338" t="str">
         <v>Other</v>
       </c>
       <c r="C338" t="str">
-        <v>rajini@awlindia.com</v>
+        <v>punit@awlindia.com</v>
       </c>
       <c r="D338" t="str">
         <v>Closed</v>
@@ -5136,13 +5136,13 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>Bhole Yadav</v>
+        <v>Sunil Kumar</v>
       </c>
       <c r="B339" t="str">
         <v>Other</v>
       </c>
       <c r="C339" t="str">
-        <v>bhola@awlindia.com</v>
+        <v>sunil@awlindia.com</v>
       </c>
       <c r="D339" t="str">
         <v>Closed</v>
@@ -5150,13 +5150,13 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rajini Nagaiah</v>
       </c>
       <c r="B340" t="str">
         <v>Other</v>
       </c>
       <c r="C340" t="str">
-        <v>support@awlindia.com</v>
+        <v>rajini@awlindia.com</v>
       </c>
       <c r="D340" t="str">
         <v>Closed</v>
@@ -5164,13 +5164,13 @@
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>Aman Lohan</v>
+        <v>Bhole Yadav</v>
       </c>
       <c r="B341" t="str">
         <v>Other</v>
       </c>
       <c r="C341" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>bhola@awlindia.com</v>
       </c>
       <c r="D341" t="str">
         <v>Closed</v>
@@ -5178,13 +5178,13 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>Makhan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B342" t="str">
         <v>Other</v>
       </c>
       <c r="C342" t="str">
-        <v>makhan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D342" t="str">
         <v>Closed</v>
@@ -5192,13 +5192,13 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>Makhan Singh</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B343" t="str">
         <v>Other</v>
       </c>
       <c r="C343" t="str">
-        <v>makhan@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D343" t="str">
         <v>Closed</v>
@@ -5234,13 +5234,13 @@
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>IT SUPPORT</v>
+        <v>Makhan Singh</v>
       </c>
       <c r="B346" t="str">
         <v>Other</v>
       </c>
       <c r="C346" t="str">
-        <v>support@awlindia.com</v>
+        <v>makhan@awlindia.com</v>
       </c>
       <c r="D346" t="str">
         <v>Closed</v>
@@ -5248,13 +5248,13 @@
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>Hemant Kumar</v>
+        <v>Makhan Singh</v>
       </c>
       <c r="B347" t="str">
         <v>Other</v>
       </c>
       <c r="C347" t="str">
-        <v>hemantk@awlindia.com</v>
+        <v>makhan@awlindia.com</v>
       </c>
       <c r="D347" t="str">
         <v>Closed</v>
@@ -5262,13 +5262,13 @@
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>Abhishek Pal</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B348" t="str">
         <v>Other</v>
       </c>
       <c r="C348" t="str">
-        <v>support@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D348" t="str">
         <v>Closed</v>
@@ -5276,13 +5276,13 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>IT SUPPORT</v>
+        <v>Hemant Kumar</v>
       </c>
       <c r="B349" t="str">
         <v>Other</v>
       </c>
       <c r="C349" t="str">
-        <v>support@awlindia.com</v>
+        <v>hemantk@awlindia.com</v>
       </c>
       <c r="D349" t="str">
         <v>Closed</v>
@@ -5290,13 +5290,13 @@
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>IT SUPPORT</v>
+        <v>Abhishek Pal</v>
       </c>
       <c r="B350" t="str">
         <v>Other</v>
       </c>
       <c r="C350" t="str">
-        <v>support@awlindia.com</v>
+        <v>support@ilogsolution.com</v>
       </c>
       <c r="D350" t="str">
         <v>Closed</v>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>Sakshi Gupta</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B351" t="str">
         <v>Other</v>
       </c>
       <c r="C351" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D351" t="str">
         <v>Closed</v>
@@ -5318,13 +5318,13 @@
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>Sakshi Gupta</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B352" t="str">
         <v>Other</v>
       </c>
       <c r="C352" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D352" t="str">
         <v>Closed</v>
@@ -5332,13 +5332,13 @@
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>IT SUPPORT</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B353" t="str">
         <v>Other</v>
       </c>
       <c r="C353" t="str">
-        <v>support@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D353" t="str">
         <v>Closed</v>
@@ -5346,13 +5346,13 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>IT SUPPORT</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B354" t="str">
         <v>Other</v>
       </c>
       <c r="C354" t="str">
-        <v>support@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D354" t="str">
         <v>Closed</v>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>Abhishek Pal</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B356" t="str">
         <v>Other</v>
       </c>
       <c r="C356" t="str">
-        <v>support@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D356" t="str">
         <v>Closed</v>
@@ -5388,13 +5388,13 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>Sakshi Gupta</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B357" t="str">
         <v>Other</v>
       </c>
       <c r="C357" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D357" t="str">
         <v>Closed</v>
@@ -5402,13 +5402,13 @@
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>Sakshi Gupta</v>
+        <v>Abhishek Pal</v>
       </c>
       <c r="B358" t="str">
         <v>Other</v>
       </c>
       <c r="C358" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@ilogsolution.com</v>
       </c>
       <c r="D358" t="str">
         <v>Closed</v>
@@ -5416,13 +5416,13 @@
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>Parshant Kumar</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B359" t="str">
         <v>Other</v>
       </c>
       <c r="C359" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D359" t="str">
         <v>Closed</v>
@@ -5430,13 +5430,13 @@
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>IT SUPPORT</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B360" t="str">
         <v>Other</v>
       </c>
       <c r="C360" t="str">
-        <v>support@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D360" t="str">
         <v>Closed</v>
@@ -5444,13 +5444,13 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>IT SUPPORT</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B361" t="str">
         <v>Other</v>
       </c>
       <c r="C361" t="str">
-        <v>support@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D361" t="str">
         <v>Closed</v>
@@ -5458,13 +5458,13 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>Akshay Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B362" t="str">
         <v>Other</v>
       </c>
       <c r="C362" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D362" t="str">
         <v>Closed</v>
@@ -5472,13 +5472,13 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>Akshay Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B363" t="str">
         <v>Other</v>
       </c>
       <c r="C363" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D363" t="str">
         <v>Closed</v>
@@ -5486,13 +5486,13 @@
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>IT SUPPORT</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B364" t="str">
         <v>Other</v>
       </c>
       <c r="C364" t="str">
-        <v>support@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D364" t="str">
         <v>Closed</v>
@@ -5500,13 +5500,13 @@
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>IT SUPPORT</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B365" t="str">
         <v>Other</v>
       </c>
       <c r="C365" t="str">
-        <v>support@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D365" t="str">
         <v>Closed</v>
@@ -5556,13 +5556,13 @@
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>Rituraj Pankaj</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B369" t="str">
         <v>Other</v>
       </c>
       <c r="C369" t="str">
-        <v>rituraj@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D369" t="str">
         <v>Closed</v>
@@ -5584,13 +5584,13 @@
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rituraj Pankaj</v>
       </c>
       <c r="B371" t="str">
         <v>Other</v>
       </c>
       <c r="C371" t="str">
-        <v>support@awlindia.com</v>
+        <v>rituraj@awlindia.com</v>
       </c>
       <c r="D371" t="str">
         <v>Closed</v>
@@ -5668,13 +5668,13 @@
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>Kanhaiya Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B377" t="str">
         <v>Other</v>
       </c>
       <c r="C377" t="str">
-        <v>kanhaiya@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D377" t="str">
         <v>Closed</v>
@@ -5682,13 +5682,13 @@
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>Sakshi Gupta</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B378" t="str">
         <v>Other</v>
       </c>
       <c r="C378" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D378" t="str">
         <v>Closed</v>
@@ -5696,13 +5696,13 @@
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>Pooja Rawat</v>
+        <v>Kanhaiya Singh</v>
       </c>
       <c r="B379" t="str">
         <v>Other</v>
       </c>
       <c r="C379" t="str">
-        <v>pooja@awlindia.com</v>
+        <v>kanhaiya@awlindia.com</v>
       </c>
       <c r="D379" t="str">
         <v>Closed</v>
@@ -5710,13 +5710,13 @@
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>Jyoti Goel</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B380" t="str">
         <v>Other</v>
       </c>
       <c r="C380" t="str">
-        <v>jyoti@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D380" t="str">
         <v>Closed</v>
@@ -5724,13 +5724,13 @@
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pooja Rawat</v>
       </c>
       <c r="B381" t="str">
         <v>Other</v>
       </c>
       <c r="C381" t="str">
-        <v>support@awlindia.com</v>
+        <v>pooja@awlindia.com</v>
       </c>
       <c r="D381" t="str">
         <v>Closed</v>
@@ -5738,13 +5738,13 @@
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jyoti Goel</v>
       </c>
       <c r="B382" t="str">
         <v>Other</v>
       </c>
       <c r="C382" t="str">
-        <v>support@awlindia.com</v>
+        <v>jyoti@awlindia.com</v>
       </c>
       <c r="D382" t="str">
         <v>Closed</v>
@@ -5780,13 +5780,13 @@
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>Mahima Manchanda</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B385" t="str">
         <v>Other</v>
       </c>
       <c r="C385" t="str">
-        <v>mahima@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D385" t="str">
         <v>Closed</v>
@@ -5808,13 +5808,13 @@
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>IT SUPPORT</v>
+        <v>Mahima Manchanda</v>
       </c>
       <c r="B387" t="str">
         <v>Other</v>
       </c>
       <c r="C387" t="str">
-        <v>support@awlindia.com</v>
+        <v>mahima@awlindia.com</v>
       </c>
       <c r="D387" t="str">
         <v>Closed</v>
@@ -5822,13 +5822,13 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>Dinesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B388" t="str">
         <v>Other</v>
       </c>
       <c r="C388" t="str">
-        <v>dinesh@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D388" t="str">
         <v>Closed</v>
@@ -5850,13 +5850,13 @@
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>IT SUPPORT</v>
+        <v>Dinesh Kumar</v>
       </c>
       <c r="B390" t="str">
         <v>Other</v>
       </c>
       <c r="C390" t="str">
-        <v>support@awlindia.com</v>
+        <v>dinesh@awlindia.com</v>
       </c>
       <c r="D390" t="str">
         <v>Closed</v>
@@ -5878,13 +5878,13 @@
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>Mamta Kumari</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B392" t="str">
         <v>Other</v>
       </c>
       <c r="C392" t="str">
-        <v>mamta.kumari@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D392" t="str">
         <v>Closed</v>
@@ -5892,13 +5892,13 @@
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>Mahima Manchanda</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B393" t="str">
         <v>Other</v>
       </c>
       <c r="C393" t="str">
-        <v>mahima@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D393" t="str">
         <v>Closed</v>
@@ -5906,13 +5906,13 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>IT SUPPORT</v>
+        <v>Mamta Kumari</v>
       </c>
       <c r="B394" t="str">
         <v>Other</v>
       </c>
       <c r="C394" t="str">
-        <v>support@awlindia.com</v>
+        <v>mamta.kumari@awlindia.com</v>
       </c>
       <c r="D394" t="str">
         <v>Closed</v>
@@ -5920,13 +5920,13 @@
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>IT SUPPORT</v>
+        <v>Mahima Manchanda</v>
       </c>
       <c r="B395" t="str">
         <v>Other</v>
       </c>
       <c r="C395" t="str">
-        <v>support@awlindia.com</v>
+        <v>mahima@awlindia.com</v>
       </c>
       <c r="D395" t="str">
         <v>Closed</v>
@@ -5934,13 +5934,13 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B396" t="str">
         <v>Other</v>
       </c>
       <c r="C396" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D396" t="str">
         <v>Closed</v>
@@ -5948,13 +5948,13 @@
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>Amit Sharma</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B397" t="str">
         <v>Other</v>
       </c>
       <c r="C397" t="str">
-        <v>amit.sharma@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D397" t="str">
         <v>Closed</v>
@@ -5962,13 +5962,13 @@
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B398" t="str">
         <v>Other</v>
       </c>
       <c r="C398" t="str">
-        <v>support@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D398" t="str">
         <v>Closed</v>
@@ -5976,13 +5976,13 @@
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>IT SUPPORT</v>
+        <v>Amit Sharma</v>
       </c>
       <c r="B399" t="str">
         <v>Other</v>
       </c>
       <c r="C399" t="str">
-        <v>support@awlindia.com</v>
+        <v>amit.sharma@awlindia.com</v>
       </c>
       <c r="D399" t="str">
         <v>Closed</v>
@@ -6060,13 +6060,13 @@
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>Radhika Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B405" t="str">
         <v>Other</v>
       </c>
       <c r="C405" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D405" t="str">
         <v>Closed</v>
@@ -6088,13 +6088,13 @@
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>IT SUPPORT</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B407" t="str">
         <v>Other</v>
       </c>
       <c r="C407" t="str">
-        <v>support@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D407" t="str">
         <v>Closed</v>
@@ -6116,13 +6116,13 @@
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>Kailash Sharma</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B409" t="str">
         <v>Other</v>
       </c>
       <c r="C409" t="str">
-        <v>kailash@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D409" t="str">
         <v>Closed</v>
@@ -6144,13 +6144,13 @@
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>IT SUPPORT</v>
+        <v>Kailash Sharma</v>
       </c>
       <c r="B411" t="str">
         <v>Other</v>
       </c>
       <c r="C411" t="str">
-        <v>support@awlindia.com</v>
+        <v>kailash@awlindia.com</v>
       </c>
       <c r="D411" t="str">
         <v>Closed</v>
@@ -6200,13 +6200,13 @@
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B415" t="str">
         <v>Other</v>
       </c>
       <c r="C415" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D415" t="str">
         <v>Closed</v>
@@ -6228,13 +6228,13 @@
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B417" t="str">
         <v>Other</v>
       </c>
       <c r="C417" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D417" t="str">
         <v>Closed</v>
@@ -6256,13 +6256,13 @@
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>Pooja Khandelwal</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B419" t="str">
         <v>Other</v>
       </c>
       <c r="C419" t="str">
-        <v>pooja.khandelwal@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D419" t="str">
         <v>Closed</v>
@@ -6270,13 +6270,13 @@
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>Pooja Khandelwal</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B420" t="str">
         <v>Other</v>
       </c>
       <c r="C420" t="str">
-        <v>pooja.khandelwal@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D420" t="str">
         <v>Closed</v>
@@ -6284,13 +6284,13 @@
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pooja Khandelwal</v>
       </c>
       <c r="B421" t="str">
         <v>Other</v>
       </c>
       <c r="C421" t="str">
-        <v>support@awlindia.com</v>
+        <v>pooja.khandelwal@awlindia.com</v>
       </c>
       <c r="D421" t="str">
         <v>Closed</v>
@@ -6298,13 +6298,13 @@
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>Abhishek Pal</v>
+        <v>Pooja Khandelwal</v>
       </c>
       <c r="B422" t="str">
         <v>Other</v>
       </c>
       <c r="C422" t="str">
-        <v>support@ilogsolution.com</v>
+        <v>pooja.khandelwal@awlindia.com</v>
       </c>
       <c r="D422" t="str">
         <v>Closed</v>
@@ -6326,13 +6326,13 @@
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>IT SUPPORT</v>
+        <v>Abhishek Pal</v>
       </c>
       <c r="B424" t="str">
         <v>Other</v>
       </c>
       <c r="C424" t="str">
-        <v>support@awlindia.com</v>
+        <v>support@ilogsolution.com</v>
       </c>
       <c r="D424" t="str">
         <v>Closed</v>
@@ -6354,13 +6354,13 @@
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>Vikas Tiwari</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B426" t="str">
         <v>Other</v>
       </c>
       <c r="C426" t="str">
-        <v>vikas.tiwari@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D426" t="str">
         <v>Closed</v>
@@ -6382,13 +6382,13 @@
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vikas Tiwari</v>
       </c>
       <c r="B428" t="str">
         <v>Other</v>
       </c>
       <c r="C428" t="str">
-        <v>support@awlindia.com</v>
+        <v>vikas.tiwari@awlindia.com</v>
       </c>
       <c r="D428" t="str">
         <v>Closed</v>
@@ -6396,13 +6396,13 @@
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>Gurbachan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B429" t="str">
         <v>Other</v>
       </c>
       <c r="C429" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D429" t="str">
         <v>Closed</v>
@@ -6410,13 +6410,13 @@
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>Vikas Pandya</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B430" t="str">
         <v>Other</v>
       </c>
       <c r="C430" t="str">
-        <v>vpandya@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D430" t="str">
         <v>Closed</v>
@@ -6424,13 +6424,13 @@
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B431" t="str">
         <v>Other</v>
       </c>
       <c r="C431" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D431" t="str">
         <v>Closed</v>
@@ -6438,13 +6438,13 @@
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vikas Pandya</v>
       </c>
       <c r="B432" t="str">
         <v>Other</v>
       </c>
       <c r="C432" t="str">
-        <v>support@awlindia.com</v>
+        <v>vpandya@awlindia.com</v>
       </c>
       <c r="D432" t="str">
         <v>Closed</v>
@@ -6452,13 +6452,13 @@
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B433" t="str">
         <v>Other</v>
       </c>
       <c r="C433" t="str">
-        <v>support@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D433" t="str">
         <v>Closed</v>
@@ -6466,13 +6466,13 @@
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>Amit Sharma</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B434" t="str">
         <v>Other</v>
       </c>
       <c r="C434" t="str">
-        <v>amit.sharma@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D434" t="str">
         <v>Closed</v>
@@ -6494,13 +6494,13 @@
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>IT SUPPORT</v>
+        <v>Amit Sharma</v>
       </c>
       <c r="B436" t="str">
         <v>Other</v>
       </c>
       <c r="C436" t="str">
-        <v>support@awlindia.com</v>
+        <v>amit.sharma@awlindia.com</v>
       </c>
       <c r="D436" t="str">
         <v>Closed</v>
@@ -6508,13 +6508,13 @@
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>Rahul Dulgaj</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B437" t="str">
         <v>Other</v>
       </c>
       <c r="C437" t="str">
-        <v>rahul.dulgaj@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D437" t="str">
         <v>Closed</v>
@@ -6522,13 +6522,13 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>Devender Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B438" t="str">
         <v>Other</v>
       </c>
       <c r="C438" t="str">
-        <v/>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D438" t="str">
         <v>Closed</v>
@@ -6536,13 +6536,13 @@
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>Pooja Rawat</v>
+        <v>Rahul Dulgaj</v>
       </c>
       <c r="B439" t="str">
         <v>Other</v>
       </c>
       <c r="C439" t="str">
-        <v>pooja@awlindia.com</v>
+        <v>rahul.dulgaj@ilogsolution.com</v>
       </c>
       <c r="D439" t="str">
         <v>Closed</v>
@@ -6550,13 +6550,13 @@
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>Pooja Rawat</v>
+        <v>Devender Kumar</v>
       </c>
       <c r="B440" t="str">
         <v>Other</v>
       </c>
       <c r="C440" t="str">
-        <v>pooja@awlindia.com</v>
+        <v/>
       </c>
       <c r="D440" t="str">
         <v>Closed</v>
@@ -6564,13 +6564,13 @@
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pooja Rawat</v>
       </c>
       <c r="B441" t="str">
         <v>Other</v>
       </c>
       <c r="C441" t="str">
-        <v>support@awlindia.com</v>
+        <v>pooja@awlindia.com</v>
       </c>
       <c r="D441" t="str">
         <v>Closed</v>
@@ -6578,13 +6578,13 @@
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pooja Rawat</v>
       </c>
       <c r="B442" t="str">
         <v>Other</v>
       </c>
       <c r="C442" t="str">
-        <v>support@awlindia.com</v>
+        <v>pooja@awlindia.com</v>
       </c>
       <c r="D442" t="str">
         <v>Closed</v>
@@ -6746,13 +6746,13 @@
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>Gurbachan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B454" t="str">
         <v>Other</v>
       </c>
       <c r="C454" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D454" t="str">
         <v>Closed</v>
@@ -6774,13 +6774,13 @@
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>IT SUPPORT</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B456" t="str">
         <v>Other</v>
       </c>
       <c r="C456" t="str">
-        <v>support@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D456" t="str">
         <v>Closed</v>
@@ -6802,13 +6802,13 @@
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B458" t="str">
         <v>Other</v>
       </c>
       <c r="C458" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D458" t="str">
         <v>Closed</v>
@@ -6830,13 +6830,13 @@
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B460" t="str">
         <v>Other</v>
       </c>
       <c r="C460" t="str">
-        <v>support@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D460" t="str">
         <v>Closed</v>
@@ -6844,13 +6844,13 @@
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>Sachin M Wardhe</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B461" t="str">
         <v>Other</v>
       </c>
       <c r="C461" t="str">
-        <v>sachin@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D461" t="str">
         <v>Closed</v>
@@ -6872,13 +6872,13 @@
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>IT SUPPORT</v>
+        <v>Sachin M Wardhe</v>
       </c>
       <c r="B463" t="str">
         <v>Other</v>
       </c>
       <c r="C463" t="str">
-        <v>support@awlindia.com</v>
+        <v>sachin@awlindia.com</v>
       </c>
       <c r="D463" t="str">
         <v>Closed</v>
@@ -6903,7 +6903,7 @@
         <v>IT SUPPORT</v>
       </c>
       <c r="B465" t="str">
-        <v>Amplifier, (059881F81220034AE)</v>
+        <v>Other</v>
       </c>
       <c r="C465" t="str">
         <v>support@awlindia.com</v>
@@ -6914,13 +6914,13 @@
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>Jahanvi Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B466" t="str">
         <v>Other</v>
       </c>
       <c r="C466" t="str">
-        <v>jahanvi.singh@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D466" t="str">
         <v>Closed</v>
@@ -6931,7 +6931,7 @@
         <v>IT SUPPORT</v>
       </c>
       <c r="B467" t="str">
-        <v>Other</v>
+        <v>Amplifier, (059881F81220034AE)</v>
       </c>
       <c r="C467" t="str">
         <v>support@awlindia.com</v>
@@ -6942,13 +6942,13 @@
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jahanvi Singh</v>
       </c>
       <c r="B468" t="str">
         <v>Other</v>
       </c>
       <c r="C468" t="str">
-        <v>support@awlindia.com</v>
+        <v>jahanvi.singh@awlindia.com</v>
       </c>
       <c r="D468" t="str">
         <v>Closed</v>
@@ -6984,13 +6984,13 @@
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>Jahanvi Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B471" t="str">
         <v>Other</v>
       </c>
       <c r="C471" t="str">
-        <v>jahanvi.singh@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D471" t="str">
         <v>Closed</v>
@@ -7012,13 +7012,13 @@
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>Rupesh Kumar</v>
+        <v>Jahanvi Singh</v>
       </c>
       <c r="B473" t="str">
         <v>Other</v>
       </c>
       <c r="C473" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>jahanvi.singh@awlindia.com</v>
       </c>
       <c r="D473" t="str">
         <v>Closed</v>
@@ -7040,13 +7040,13 @@
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B475" t="str">
         <v>Other</v>
       </c>
       <c r="C475" t="str">
-        <v>support@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D475" t="str">
         <v>Closed</v>
@@ -7194,13 +7194,13 @@
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>Parshant Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B486" t="str">
         <v>Other</v>
       </c>
       <c r="C486" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D486" t="str">
         <v>Closed</v>
@@ -7208,13 +7208,13 @@
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>Parshant Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B487" t="str">
         <v>Other</v>
       </c>
       <c r="C487" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D487" t="str">
         <v>Closed</v>
@@ -7222,13 +7222,13 @@
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>IT SUPPORT</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B488" t="str">
         <v>Other</v>
       </c>
       <c r="C488" t="str">
-        <v>support@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D488" t="str">
         <v>Closed</v>
@@ -7236,13 +7236,13 @@
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>IT SUPPORT</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B489" t="str">
         <v>Other</v>
       </c>
       <c r="C489" t="str">
-        <v>support@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D489" t="str">
         <v>Closed</v>
@@ -7292,13 +7292,13 @@
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>Sachin M Wardhe</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B493" t="str">
         <v>Other</v>
       </c>
       <c r="C493" t="str">
-        <v>sachin@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D493" t="str">
         <v>Closed</v>
@@ -7306,13 +7306,13 @@
     </row>
     <row r="494">
       <c r="A494" t="str">
-        <v>Rupesh Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B494" t="str">
         <v>Other</v>
       </c>
       <c r="C494" t="str">
-        <v>Rupesh.kumar@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D494" t="str">
         <v>Closed</v>
@@ -7320,13 +7320,13 @@
     </row>
     <row r="495">
       <c r="A495" t="str">
-        <v>IT SUPPORT</v>
+        <v>Sachin M Wardhe</v>
       </c>
       <c r="B495" t="str">
         <v>Other</v>
       </c>
       <c r="C495" t="str">
-        <v>support@awlindia.com</v>
+        <v>sachin@awlindia.com</v>
       </c>
       <c r="D495" t="str">
         <v>Closed</v>
@@ -7334,13 +7334,13 @@
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>IT SUPPORT</v>
+        <v>Rupesh Kumar</v>
       </c>
       <c r="B496" t="str">
         <v>Other</v>
       </c>
       <c r="C496" t="str">
-        <v>support@awlindia.com</v>
+        <v>Rupesh.kumar@ilogsolution.com</v>
       </c>
       <c r="D496" t="str">
         <v>Closed</v>
@@ -7446,13 +7446,13 @@
     </row>
     <row r="504">
       <c r="A504" t="str">
-        <v>Gurbachan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B504" t="str">
         <v>Other</v>
       </c>
       <c r="C504" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D504" t="str">
         <v>Closed</v>
@@ -7460,13 +7460,13 @@
     </row>
     <row r="505">
       <c r="A505" t="str">
-        <v>Gurbachan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B505" t="str">
         <v>Other</v>
       </c>
       <c r="C505" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D505" t="str">
         <v>Closed</v>
@@ -7474,13 +7474,13 @@
     </row>
     <row r="506">
       <c r="A506" t="str">
-        <v>Sakshi Gupta</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B506" t="str">
         <v>Other</v>
       </c>
       <c r="C506" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D506" t="str">
         <v>Closed</v>
@@ -7488,13 +7488,13 @@
     </row>
     <row r="507">
       <c r="A507" t="str">
-        <v>IT SUPPORT</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B507" t="str">
         <v>Other</v>
       </c>
       <c r="C507" t="str">
-        <v>support@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D507" t="str">
         <v>Closed</v>
@@ -7502,13 +7502,13 @@
     </row>
     <row r="508">
       <c r="A508" t="str">
-        <v>Parshant Kumar</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B508" t="str">
         <v>Other</v>
       </c>
       <c r="C508" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D508" t="str">
         <v>Closed</v>
@@ -7530,13 +7530,13 @@
     </row>
     <row r="510">
       <c r="A510" t="str">
-        <v>Sachin M Wardhe</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B510" t="str">
         <v>Other</v>
       </c>
       <c r="C510" t="str">
-        <v>sachin@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D510" t="str">
         <v>Closed</v>
@@ -7544,13 +7544,13 @@
     </row>
     <row r="511">
       <c r="A511" t="str">
-        <v>Akshay Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B511" t="str">
         <v>Other</v>
       </c>
       <c r="C511" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D511" t="str">
         <v>Closed</v>
@@ -7558,13 +7558,13 @@
     </row>
     <row r="512">
       <c r="A512" t="str">
-        <v>Akshay Kumar</v>
+        <v>Sachin M Wardhe</v>
       </c>
       <c r="B512" t="str">
         <v>Other</v>
       </c>
       <c r="C512" t="str">
-        <v>akshay.kumar@awlindia.com</v>
+        <v>sachin@awlindia.com</v>
       </c>
       <c r="D512" t="str">
         <v>Closed</v>
@@ -7586,13 +7586,13 @@
     </row>
     <row r="514">
       <c r="A514" t="str">
-        <v>Varun Maheshwari</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B514" t="str">
         <v>Other</v>
       </c>
       <c r="C514" t="str">
-        <v>vmaheshwari@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D514" t="str">
         <v>Closed</v>
@@ -7600,13 +7600,13 @@
     </row>
     <row r="515">
       <c r="A515" t="str">
-        <v>Parshant Kumar</v>
+        <v>Akshay Kumar</v>
       </c>
       <c r="B515" t="str">
         <v>Other</v>
       </c>
       <c r="C515" t="str">
-        <v>parshant.kumar@awlindia.com</v>
+        <v>akshay.kumar@awlindia.com</v>
       </c>
       <c r="D515" t="str">
         <v>Closed</v>
@@ -7614,13 +7614,13 @@
     </row>
     <row r="516">
       <c r="A516" t="str">
-        <v>Jahanvi Singh</v>
+        <v>Varun Maheshwari</v>
       </c>
       <c r="B516" t="str">
         <v>Other</v>
       </c>
       <c r="C516" t="str">
-        <v>jahanvi.singh@awlindia.com</v>
+        <v>vmaheshwari@awlindia.com</v>
       </c>
       <c r="D516" t="str">
         <v>Closed</v>
@@ -7628,13 +7628,13 @@
     </row>
     <row r="517">
       <c r="A517" t="str">
-        <v>Jyoti Panday</v>
+        <v>Parshant Kumar</v>
       </c>
       <c r="B517" t="str">
         <v>Other</v>
       </c>
       <c r="C517" t="str">
-        <v>jyoti.panday@awlindia.com</v>
+        <v>parshant.kumar@awlindia.com</v>
       </c>
       <c r="D517" t="str">
         <v>Closed</v>
@@ -7642,13 +7642,13 @@
     </row>
     <row r="518">
       <c r="A518" t="str">
-        <v>Prashant Srivastava</v>
+        <v>Jahanvi Singh</v>
       </c>
       <c r="B518" t="str">
         <v>Other</v>
       </c>
       <c r="C518" t="str">
-        <v>dev.prashant@awlindia.com</v>
+        <v>jahanvi.singh@awlindia.com</v>
       </c>
       <c r="D518" t="str">
         <v>Closed</v>
@@ -7656,13 +7656,13 @@
     </row>
     <row r="519">
       <c r="A519" t="str">
-        <v>Pradeep Goyat</v>
+        <v>Jyoti Panday</v>
       </c>
       <c r="B519" t="str">
         <v>Other</v>
       </c>
       <c r="C519" t="str">
-        <v>pradeep@awlindia.com</v>
+        <v>jyoti.panday@awlindia.com</v>
       </c>
       <c r="D519" t="str">
         <v>Closed</v>
@@ -7670,13 +7670,13 @@
     </row>
     <row r="520">
       <c r="A520" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prashant Srivastava</v>
       </c>
       <c r="B520" t="str">
         <v>Other</v>
       </c>
       <c r="C520" t="str">
-        <v>support@awlindia.com</v>
+        <v>dev.prashant@awlindia.com</v>
       </c>
       <c r="D520" t="str">
         <v>Closed</v>
@@ -7684,13 +7684,13 @@
     </row>
     <row r="521">
       <c r="A521" t="str">
-        <v>Vishal Kumar</v>
+        <v>Pradeep Goyat</v>
       </c>
       <c r="B521" t="str">
         <v>Other</v>
       </c>
       <c r="C521" t="str">
-        <v>dev.vishal@awlindia.com</v>
+        <v>pradeep@awlindia.com</v>
       </c>
       <c r="D521" t="str">
         <v>Closed</v>
@@ -7698,13 +7698,13 @@
     </row>
     <row r="522">
       <c r="A522" t="str">
-        <v>Amit Sharma</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B522" t="str">
         <v>Other</v>
       </c>
       <c r="C522" t="str">
-        <v>amit.sharma@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D522" t="str">
         <v>Closed</v>
@@ -7712,13 +7712,13 @@
     </row>
     <row r="523">
       <c r="A523" t="str">
-        <v>Pradeep Goyat</v>
+        <v>Vishal Kumar</v>
       </c>
       <c r="B523" t="str">
         <v>Other</v>
       </c>
       <c r="C523" t="str">
-        <v>pradeep@awlindia.com</v>
+        <v>dev.vishal@awlindia.com</v>
       </c>
       <c r="D523" t="str">
         <v>Closed</v>
@@ -7726,13 +7726,13 @@
     </row>
     <row r="524">
       <c r="A524" t="str">
-        <v>IT SUPPORT</v>
+        <v>Amit Sharma</v>
       </c>
       <c r="B524" t="str">
         <v>Other</v>
       </c>
       <c r="C524" t="str">
-        <v>support@awlindia.com</v>
+        <v>amit.sharma@awlindia.com</v>
       </c>
       <c r="D524" t="str">
         <v>Closed</v>
@@ -7740,13 +7740,13 @@
     </row>
     <row r="525">
       <c r="A525" t="str">
-        <v>IT SUPPORT</v>
+        <v>Pradeep Goyat</v>
       </c>
       <c r="B525" t="str">
         <v>Other</v>
       </c>
       <c r="C525" t="str">
-        <v>support@awlindia.com</v>
+        <v>pradeep@awlindia.com</v>
       </c>
       <c r="D525" t="str">
         <v>Closed</v>
@@ -7754,13 +7754,13 @@
     </row>
     <row r="526">
       <c r="A526" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B526" t="str">
         <v>Other</v>
       </c>
       <c r="C526" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D526" t="str">
         <v>Closed</v>
@@ -7782,13 +7782,13 @@
     </row>
     <row r="528">
       <c r="A528" t="str">
-        <v>IT SUPPORT</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B528" t="str">
         <v>Other</v>
       </c>
       <c r="C528" t="str">
-        <v>support@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D528" t="str">
         <v>Closed</v>
@@ -7824,13 +7824,13 @@
     </row>
     <row r="531">
       <c r="A531" t="str">
-        <v>Manish Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B531" t="str">
         <v>Other</v>
       </c>
       <c r="C531" t="str">
-        <v>manish@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D531" t="str">
         <v>Closed</v>
@@ -7852,13 +7852,13 @@
     </row>
     <row r="533">
       <c r="A533" t="str">
-        <v>IT SUPPORT</v>
+        <v>Manish Kumar</v>
       </c>
       <c r="B533" t="str">
         <v>Other</v>
       </c>
       <c r="C533" t="str">
-        <v>support@awlindia.com</v>
+        <v>manish@awlindia.com</v>
       </c>
       <c r="D533" t="str">
         <v>Closed</v>
@@ -7880,13 +7880,13 @@
     </row>
     <row r="535">
       <c r="A535" t="str">
-        <v>Gurbachan Singh</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B535" t="str">
         <v>Other</v>
       </c>
       <c r="C535" t="str">
-        <v>gurbachan@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D535" t="str">
         <v>Closed</v>
@@ -7908,13 +7908,13 @@
     </row>
     <row r="537">
       <c r="A537" t="str">
-        <v>IT SUPPORT</v>
+        <v>Gurbachan Singh</v>
       </c>
       <c r="B537" t="str">
         <v>Other</v>
       </c>
       <c r="C537" t="str">
-        <v>support@awlindia.com</v>
+        <v>gurbachan@awlindia.com</v>
       </c>
       <c r="D537" t="str">
         <v>Closed</v>
@@ -8020,13 +8020,13 @@
     </row>
     <row r="545">
       <c r="A545" t="str">
-        <v>Radhika Patel</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B545" t="str">
         <v>Other</v>
       </c>
       <c r="C545" t="str">
-        <v>radhika@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D545" t="str">
         <v>Closed</v>
@@ -8048,13 +8048,13 @@
     </row>
     <row r="547">
       <c r="A547" t="str">
-        <v>IT SUPPORT</v>
+        <v>Radhika Patel</v>
       </c>
       <c r="B547" t="str">
         <v>Other</v>
       </c>
       <c r="C547" t="str">
-        <v>support@awlindia.com</v>
+        <v>radhika@awlindia.com</v>
       </c>
       <c r="D547" t="str">
         <v>Closed</v>
@@ -8090,13 +8090,13 @@
     </row>
     <row r="550">
       <c r="A550" t="str">
-        <v>Varun Monga</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B550" t="str">
         <v>Other</v>
       </c>
       <c r="C550" t="str">
-        <v>varun@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D550" t="str">
         <v>Closed</v>
@@ -8118,13 +8118,13 @@
     </row>
     <row r="552">
       <c r="A552" t="str">
-        <v>Vijay Vyankat Mali</v>
+        <v>Varun Monga</v>
       </c>
       <c r="B552" t="str">
         <v>Other</v>
       </c>
       <c r="C552" t="str">
-        <v>vijay@awlindia.com</v>
+        <v>varun@awlindia.com</v>
       </c>
       <c r="D552" t="str">
         <v>Closed</v>
@@ -8146,13 +8146,13 @@
     </row>
     <row r="554">
       <c r="A554" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vijay Vyankat Mali</v>
       </c>
       <c r="B554" t="str">
         <v>Other</v>
       </c>
       <c r="C554" t="str">
-        <v>support@awlindia.com</v>
+        <v>vijay@awlindia.com</v>
       </c>
       <c r="D554" t="str">
         <v>Closed</v>
@@ -8160,13 +8160,13 @@
     </row>
     <row r="555">
       <c r="A555" t="str">
-        <v>Nishant Goyal</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B555" t="str">
         <v>Other</v>
       </c>
       <c r="C555" t="str">
-        <v>nishant@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D555" t="str">
         <v>Closed</v>
@@ -8188,13 +8188,13 @@
     </row>
     <row r="557">
       <c r="A557" t="str">
-        <v>IT SUPPORT</v>
+        <v>Nishant Goyal</v>
       </c>
       <c r="B557" t="str">
         <v>Other</v>
       </c>
       <c r="C557" t="str">
-        <v>support@awlindia.com</v>
+        <v>nishant@awlindia.com</v>
       </c>
       <c r="D557" t="str">
         <v>Closed</v>
@@ -8244,13 +8244,13 @@
     </row>
     <row r="561">
       <c r="A561" t="str">
-        <v>Sakshi Gupta</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B561" t="str">
         <v>Other</v>
       </c>
       <c r="C561" t="str">
-        <v>sakshi@doxandox.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D561" t="str">
         <v>Closed</v>
@@ -8272,13 +8272,13 @@
     </row>
     <row r="563">
       <c r="A563" t="str">
-        <v>Jyoti Panday</v>
+        <v>Sakshi Gupta</v>
       </c>
       <c r="B563" t="str">
         <v>Other</v>
       </c>
       <c r="C563" t="str">
-        <v>jyoti.panday@awlindia.com</v>
+        <v>sakshi@doxandox.com</v>
       </c>
       <c r="D563" t="str">
         <v>Closed</v>
@@ -8286,13 +8286,13 @@
     </row>
     <row r="564">
       <c r="A564" t="str">
-        <v>Vishal Kumar</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B564" t="str">
         <v>Other</v>
       </c>
       <c r="C564" t="str">
-        <v>dev.vishal@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D564" t="str">
         <v>Closed</v>
@@ -8300,13 +8300,13 @@
     </row>
     <row r="565">
       <c r="A565" t="str">
-        <v>Aman Lohan</v>
+        <v>Jyoti Panday</v>
       </c>
       <c r="B565" t="str">
         <v>Other</v>
       </c>
       <c r="C565" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>jyoti.panday@awlindia.com</v>
       </c>
       <c r="D565" t="str">
         <v>Closed</v>
@@ -8314,13 +8314,13 @@
     </row>
     <row r="566">
       <c r="A566" t="str">
-        <v>IT SUPPORT</v>
+        <v>Vishal Kumar</v>
       </c>
       <c r="B566" t="str">
         <v>Other</v>
       </c>
       <c r="C566" t="str">
-        <v>support@awlindia.com</v>
+        <v>dev.vishal@awlindia.com</v>
       </c>
       <c r="D566" t="str">
         <v>Closed</v>
@@ -8328,13 +8328,13 @@
     </row>
     <row r="567">
       <c r="A567" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B567" t="str">
         <v>Other</v>
       </c>
       <c r="C567" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D567" t="str">
         <v>Closed</v>
@@ -8356,13 +8356,13 @@
     </row>
     <row r="569">
       <c r="A569" t="str">
-        <v>Aman Lohan</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B569" t="str">
         <v>Other</v>
       </c>
       <c r="C569" t="str">
-        <v>aman@ilogsolution.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D569" t="str">
         <v>Closed</v>
@@ -8384,13 +8384,13 @@
     </row>
     <row r="571">
       <c r="A571" t="str">
-        <v>IT SUPPORT</v>
+        <v>Aman Lohan</v>
       </c>
       <c r="B571" t="str">
         <v>Other</v>
       </c>
       <c r="C571" t="str">
-        <v>support@awlindia.com</v>
+        <v>aman@ilogsolution.com</v>
       </c>
       <c r="D571" t="str">
         <v>Closed</v>
@@ -8398,13 +8398,13 @@
     </row>
     <row r="572">
       <c r="A572" t="str">
-        <v>Jyoti Panday</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B572" t="str">
         <v>Other</v>
       </c>
       <c r="C572" t="str">
-        <v>jyoti.panday@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D572" t="str">
         <v>Closed</v>
@@ -8426,13 +8426,13 @@
     </row>
     <row r="574">
       <c r="A574" t="str">
-        <v>IT SUPPORT</v>
+        <v>Jyoti Panday</v>
       </c>
       <c r="B574" t="str">
         <v>Other</v>
       </c>
       <c r="C574" t="str">
-        <v>support@awlindia.com</v>
+        <v>jyoti.panday@awlindia.com</v>
       </c>
       <c r="D574" t="str">
         <v>Closed</v>
@@ -8440,13 +8440,13 @@
     </row>
     <row r="575">
       <c r="A575" t="str">
-        <v>Ankush Rastogi</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B575" t="str">
         <v>Other</v>
       </c>
       <c r="C575" t="str">
-        <v>ankush@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D575" t="str">
         <v>Closed</v>
@@ -8454,13 +8454,13 @@
     </row>
     <row r="576">
       <c r="A576" t="str">
-        <v>Ramesh Chandra Panigrahi</v>
+        <v>IT SUPPORT</v>
       </c>
       <c r="B576" t="str">
         <v>Other</v>
       </c>
       <c r="C576" t="str">
-        <v>ramesh@awlindia.com</v>
+        <v>support@awlindia.com</v>
       </c>
       <c r="D576" t="str">
         <v>Closed</v>
@@ -8468,13 +8468,13 @@
     </row>
     <row r="577">
       <c r="A577" t="str">
-        <v>Prashant Kumar Jha</v>
+        <v>Ankush Rastogi</v>
       </c>
       <c r="B577" t="str">
         <v>Other</v>
       </c>
       <c r="C577" t="str">
-        <v>prashant.jha@awlindia.com</v>
+        <v>ankush@awlindia.com</v>
       </c>
       <c r="D577" t="str">
         <v>Closed</v>
@@ -8482,13 +8482,13 @@
     </row>
     <row r="578">
       <c r="A578" t="str">
-        <v>IT SUPPORT</v>
+        <v>Ramesh Chandra Panigrahi</v>
       </c>
       <c r="B578" t="str">
         <v>Other</v>
       </c>
       <c r="C578" t="str">
-        <v>support@awlindia.com</v>
+        <v>ramesh@awlindia.com</v>
       </c>
       <c r="D578" t="str">
         <v>Closed</v>
@@ -8496,13 +8496,13 @@
     </row>
     <row r="579">
       <c r="A579" t="str">
-        <v>Bhole Yadav</v>
+        <v>Prashant Kumar Jha</v>
       </c>
       <c r="B579" t="str">
         <v>Other</v>
       </c>
       <c r="C579" t="str">
-        <v>bhola@awlindia.com</v>
+        <v>prashant.jha@awlindia.com</v>
       </c>
       <c r="D579" t="str">
         <v>Closed</v>
@@ -8524,21 +8524,819 @@
     </row>
     <row r="581">
       <c r="A581" t="str">
-        <v>IT SUPPORT</v>
+        <v>Bhole Yadav</v>
       </c>
       <c r="B581" t="str">
         <v>Other</v>
       </c>
       <c r="C581" t="str">
-        <v>support@awlindia.com</v>
+        <v>bhola@awlindia.com</v>
       </c>
       <c r="D581" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B582" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C582" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D582" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B583" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C583" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D583" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>Bhole Yadav</v>
+      </c>
+      <c r="B584" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C584" t="str">
+        <v>bhola@awlindia.com</v>
+      </c>
+      <c r="D584" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>Bhole Yadav</v>
+      </c>
+      <c r="B585" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C585" t="str">
+        <v>bhola@awlindia.com</v>
+      </c>
+      <c r="D585" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B586" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C586" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D586" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>Prashant Srivastava</v>
+      </c>
+      <c r="B587" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C587" t="str">
+        <v>dev.prashant@awlindia.com</v>
+      </c>
+      <c r="D587" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B588" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C588" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D588" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>Rahul Dulgaj</v>
+      </c>
+      <c r="B589" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C589" t="str">
+        <v>rahul.dulgaj@ilogsolution.com</v>
+      </c>
+      <c r="D589" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B590" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C590" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D590" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B591" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C591" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D591" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B592" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C592" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D592" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B593" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C593" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D593" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B594" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C594" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D594" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>Vishal Kumar</v>
+      </c>
+      <c r="B595" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C595" t="str">
+        <v>dev.vishal@awlindia.com</v>
+      </c>
+      <c r="D595" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B596" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C596" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D596" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>Vishal Kumar</v>
+      </c>
+      <c r="B597" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C597" t="str">
+        <v>dev.vishal@awlindia.com</v>
+      </c>
+      <c r="D597" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B598" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C598" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D598" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B599" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C599" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D599" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B600" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C600" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D600" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>Rupesh Kumar</v>
+      </c>
+      <c r="B601" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C601" t="str">
+        <v>Rupesh.kumar@ilogsolution.com</v>
+      </c>
+      <c r="D601" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B602" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C602" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D602" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B603" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C603" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D603" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>Akshay Kumar</v>
+      </c>
+      <c r="B604" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C604" t="str">
+        <v>akshay.kumar@awlindia.com</v>
+      </c>
+      <c r="D604" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B605" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C605" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D605" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B606" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C606" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D606" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>Ankush Rastogi</v>
+      </c>
+      <c r="B607" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C607" t="str">
+        <v>ankush@awlindia.com</v>
+      </c>
+      <c r="D607" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>Lakshmi Narayan Sharma</v>
+      </c>
+      <c r="B608" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C608" t="str">
+        <v>lnsharma@awlindia.com</v>
+      </c>
+      <c r="D608" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>Dinesh Kumar</v>
+      </c>
+      <c r="B609" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C609" t="str">
+        <v>dinesh@awlindia.com</v>
+      </c>
+      <c r="D609" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>Nadeem Khan</v>
+      </c>
+      <c r="B610" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C610" t="str">
+        <v>nadeem@awlindia.com</v>
+      </c>
+      <c r="D610" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>Prashant Srivastava</v>
+      </c>
+      <c r="B611" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C611" t="str">
+        <v>dev.prashant@awlindia.com</v>
+      </c>
+      <c r="D611" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>Vishal Kumar</v>
+      </c>
+      <c r="B612" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C612" t="str">
+        <v>dev.vishal@awlindia.com</v>
+      </c>
+      <c r="D612" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>Rahul Dulgaj</v>
+      </c>
+      <c r="B613" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C613" t="str">
+        <v>rahul.dulgaj@ilogsolution.com</v>
+      </c>
+      <c r="D613" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>Manish Kumar</v>
+      </c>
+      <c r="B614" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C614" t="str">
+        <v>manish@awlindia.com</v>
+      </c>
+      <c r="D614" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B615" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C615" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D615" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B616" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C616" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D616" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B617" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C617" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D617" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>Aman Lohan</v>
+      </c>
+      <c r="B618" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C618" t="str">
+        <v>aman@ilogsolution.com</v>
+      </c>
+      <c r="D618" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>Rupesh Kumar</v>
+      </c>
+      <c r="B619" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C619" t="str">
+        <v>Rupesh.kumar@ilogsolution.com</v>
+      </c>
+      <c r="D619" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B620" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C620" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D620" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>Bhole Yadav</v>
+      </c>
+      <c r="B621" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C621" t="str">
+        <v>bhola@awlindia.com</v>
+      </c>
+      <c r="D621" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B622" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C622" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D622" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B623" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C623" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D623" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B624" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C624" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D624" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B625" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C625" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D625" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B626" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C626" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D626" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B627" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C627" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D627" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B628" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C628" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D628" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B629" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C629" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D629" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B630" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C630" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D630" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B631" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C631" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D631" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B632" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C632" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D632" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B633" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C633" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D633" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B634" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C634" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D634" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B635" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C635" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D635" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>Lakshmi Narayan Sharma</v>
+      </c>
+      <c r="B636" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C636" t="str">
+        <v>lnsharma@awlindia.com</v>
+      </c>
+      <c r="D636" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B637" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C637" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D637" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>Amresh Singh</v>
+      </c>
+      <c r="B638" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C638" t="str">
+        <v>Amresh.singh@ilogsolution.com</v>
+      </c>
+      <c r="D638" t="str">
         <v>Closed</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D581"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D638"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,13 +418,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Pooja Khandelwal</v>
+        <v>Nitin Beohar</v>
       </c>
       <c r="B2" t="str">
-        <v>Other</v>
+        <v>8MWLPH2</v>
       </c>
       <c r="C2" t="str">
-        <v>pooja.khandelwal@awlindia.com</v>
+        <v>nitin.beohar@awlindia.com</v>
       </c>
       <c r="D2" t="str">
         <v>Closed</v>
@@ -432,21 +432,147 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>IT SUPPORT</v>
+        <v>Deen Dayal Singh</v>
       </c>
       <c r="B3" t="str">
         <v>Other</v>
       </c>
       <c r="C3" t="str">
+        <v>ddsingh@awlindia.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B4" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Varun Monga</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5CG50605VM</v>
+      </c>
+      <c r="C5" t="str">
+        <v>varun@awlindia.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Varun Monga</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C6" t="str">
+        <v>varun@awlindia.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Punit</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CNU326CPJ3</v>
+      </c>
+      <c r="C7" t="str">
+        <v>punit@awlindia.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Vishal Kumar</v>
+      </c>
+      <c r="B8" t="str">
+        <v>22T8HR2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>dev.vishal@awlindia.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C9" t="str">
         <v>support@awlindia.com</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D9" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B10" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="C10" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="C11" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C12" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D12" t="str">
         <v>Closed</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,9 +570,205 @@
         <v>Closed</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Prachi Pitliya</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CNU423B0DL</v>
+      </c>
+      <c r="C13" t="str">
+        <v>prachi@awlindia.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B14" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Nitin Beohar</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C15" t="str">
+        <v>nitin.beohar@awlindia.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B16" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Nadeem Khan</v>
+      </c>
+      <c r="B17" t="str">
+        <v>4T0WKV1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>nadeem@awlindia.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C18" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="B19" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="C19" t="str">
+        <v>samridhi@awlindia.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CDP-DTP-003</v>
+      </c>
+      <c r="C20" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Rahul Rawat</v>
+      </c>
+      <c r="B21" t="str">
+        <v>DTFMPH2</v>
+      </c>
+      <c r="C21" t="str">
+        <v>rahul.rawat@awlindia.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CNU425BZXR</v>
+      </c>
+      <c r="C22" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Mamta Kumari</v>
+      </c>
+      <c r="B23" t="str">
+        <v>7XMHVP2</v>
+      </c>
+      <c r="C23" t="str">
+        <v>mamta.kumari@awlindia.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="C24" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Arsheen Kaur</v>
+      </c>
+      <c r="B25" t="str">
+        <v>R90FJLTC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>arsheen@awlindia.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C26" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,9 +416,1787 @@
         <v>Status</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Nitin Beohar</v>
+      </c>
+      <c r="B2" t="str">
+        <v>8MWLPH2</v>
+      </c>
+      <c r="C2" t="str">
+        <v>nitin.beohar@awlindia.com</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Deen Dayal Singh</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C3" t="str">
+        <v>ddsingh@awlindia.com</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B4" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Varun Monga</v>
+      </c>
+      <c r="B5" t="str">
+        <v>5CG50605VM</v>
+      </c>
+      <c r="C5" t="str">
+        <v>varun@awlindia.com</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Varun Monga</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C6" t="str">
+        <v>varun@awlindia.com</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Punit</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CNU326CPJ3</v>
+      </c>
+      <c r="C7" t="str">
+        <v>punit@awlindia.com</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Vishal Kumar</v>
+      </c>
+      <c r="B8" t="str">
+        <v>22T8HR2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>dev.vishal@awlindia.com</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C9" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B10" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="C10" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="C11" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C12" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Prachi Pitliya</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CNU423B0DL</v>
+      </c>
+      <c r="C13" t="str">
+        <v>prachi@awlindia.com</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B14" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Nitin Beohar</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C15" t="str">
+        <v>nitin.beohar@awlindia.com</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B16" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Nadeem Khan</v>
+      </c>
+      <c r="B17" t="str">
+        <v>4T0WKV1</v>
+      </c>
+      <c r="C17" t="str">
+        <v>nadeem@awlindia.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C18" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="B19" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="C19" t="str">
+        <v>samridhi@awlindia.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CDP-DTP-003</v>
+      </c>
+      <c r="C20" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Rahul Rawat</v>
+      </c>
+      <c r="B21" t="str">
+        <v>DTFMPH2</v>
+      </c>
+      <c r="C21" t="str">
+        <v>rahul.rawat@awlindia.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CNU425BZXR</v>
+      </c>
+      <c r="C22" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Mamta Kumari</v>
+      </c>
+      <c r="B23" t="str">
+        <v>7XMHVP2</v>
+      </c>
+      <c r="C23" t="str">
+        <v>mamta.kumari@awlindia.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="C24" t="str">
+        <v>pooja.khandelwal@awlindia.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Arsheen Kaur</v>
+      </c>
+      <c r="B25" t="str">
+        <v>R90FJLTC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>arsheen@awlindia.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C26" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Amit Sharma</v>
+      </c>
+      <c r="B27" t="str">
+        <v>JG9PVZ1</v>
+      </c>
+      <c r="C27" t="str">
+        <v>amit.sharma@awlindia.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CNU425BZXR</v>
+      </c>
+      <c r="C28" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B29" t="str">
+        <v>G5JPH2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CNU425BZXR</v>
+      </c>
+      <c r="C30" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C31" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C32" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C33" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C34" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Rahul Rawat</v>
+      </c>
+      <c r="B35" t="str">
+        <v>DTFMPH2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>rahul.rawat@awlindia.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Vikas Ray</v>
+      </c>
+      <c r="B36" t="str">
+        <v>G9MMPH2</v>
+      </c>
+      <c r="C36" t="str">
+        <v>vikas@awlindia.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C37" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Manoj Kumar Dutta</v>
+      </c>
+      <c r="B38" t="str">
+        <v>DVBGYY1</v>
+      </c>
+      <c r="C38" t="str">
+        <v>manoj@awlindia.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Manoj Kumar Dutta</v>
+      </c>
+      <c r="B39" t="str">
+        <v>DVBGYY1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>manoj@awlindia.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B40" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Akshay Kumar</v>
+      </c>
+      <c r="B41" t="str">
+        <v>CNU4369GOV</v>
+      </c>
+      <c r="C41" t="str">
+        <v>akshay.kumar@awlindia.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Prachi Pitliya</v>
+      </c>
+      <c r="B42" t="str">
+        <v>CNU423B0DL</v>
+      </c>
+      <c r="C42" t="str">
+        <v>prachi@awlindia.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C43" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C44" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Rajini Nagaiah</v>
+      </c>
+      <c r="B45" t="str">
+        <v>R8MT6BW</v>
+      </c>
+      <c r="C45" t="str">
+        <v>rajini@awlindia.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C46" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C47" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Priya Pathak</v>
+      </c>
+      <c r="B48" t="str">
+        <v>R90N166A</v>
+      </c>
+      <c r="C48" t="str">
+        <v>priya@awlindia.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Pooja Rawat</v>
+      </c>
+      <c r="B49" t="str">
+        <v>5CG5052BRM</v>
+      </c>
+      <c r="C49" t="str">
+        <v>pooja@awlindia.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C50" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C51" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C52" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C53" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B54" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C54" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Prachi Pitliya</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CNU423B0DL</v>
+      </c>
+      <c r="C55" t="str">
+        <v>prachi@awlindia.com</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B56" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C56" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Randeep Singh</v>
+      </c>
+      <c r="B57" t="str">
+        <v>5MH9512</v>
+      </c>
+      <c r="C57" t="str">
+        <v>randeep.singh@doxandbox.com</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Randeep Singh</v>
+      </c>
+      <c r="B58" t="str">
+        <v>FJY0HM2</v>
+      </c>
+      <c r="C58" t="str">
+        <v>randeep.singh@doxandbox.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Krishan Gopal</v>
+      </c>
+      <c r="B59" t="str">
+        <v>JJ1DNV2</v>
+      </c>
+      <c r="C59" t="str">
+        <v>krishan@awlindia.com</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B60" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C60" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Mamta Kumari</v>
+      </c>
+      <c r="B61" t="str">
+        <v>7XMHVP2</v>
+      </c>
+      <c r="C61" t="str">
+        <v>mamta.kumari@awlindia.com</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Mamta Kumari</v>
+      </c>
+      <c r="B62" t="str">
+        <v>7XMHVP2</v>
+      </c>
+      <c r="C62" t="str">
+        <v>mamta.kumari@awlindia.com</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C63" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C64" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C65" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Manoj Kumar Dutta</v>
+      </c>
+      <c r="B66" t="str">
+        <v>BBK6MQ2</v>
+      </c>
+      <c r="C66" t="str">
+        <v>manoj@awlindia.com</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B67" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C67" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Manoj Kumar Dutta</v>
+      </c>
+      <c r="B68" t="str">
+        <v>DVBGYY1</v>
+      </c>
+      <c r="C68" t="str">
+        <v>manoj@awlindia.com</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C69" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C70" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="B71" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="C71" t="str">
+        <v>samridhi@awlindia.com</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C72" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C73" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C74" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C75" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Vinay Srivastav</v>
+      </c>
+      <c r="B76" t="str">
+        <v>HTM6TZ1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>vinay@awlindia.com</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Open</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Jahanvi Singh</v>
+      </c>
+      <c r="B77" t="str">
+        <v>G6V3TC2</v>
+      </c>
+      <c r="C77" t="str">
+        <v>jahanvi.singh@awlindia.com</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Parshant Kumar</v>
+      </c>
+      <c r="B78" t="str">
+        <v>H4PFQN2 , 38mmq0g</v>
+      </c>
+      <c r="C78" t="str">
+        <v>parshant.kumar@awlindia.com</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Subham Singh</v>
+      </c>
+      <c r="B79" t="str">
+        <v>5CD60205YD</v>
+      </c>
+      <c r="C79" t="str">
+        <v>subham@awlindia.com</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Raghunath</v>
+      </c>
+      <c r="B80" t="str">
+        <v>CDP-DTP-007</v>
+      </c>
+      <c r="C80" t="str">
+        <v>raghu@awlindia.com</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C81" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="B82" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="C82" t="str">
+        <v>samridhi@awlindia.com</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Krishan Gopal</v>
+      </c>
+      <c r="B83" t="str">
+        <v>5CG4523JTZ</v>
+      </c>
+      <c r="C83" t="str">
+        <v>krishan@awlindia.com</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C84" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B85" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C85" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="B86" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="C86" t="str">
+        <v>samridhi@awlindia.com</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C87" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B88" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C88" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B89" t="str">
+        <v>QS7L316021417</v>
+      </c>
+      <c r="C89" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Krishan Gopal</v>
+      </c>
+      <c r="B90" t="str">
+        <v>JJ1DNV2</v>
+      </c>
+      <c r="C90" t="str">
+        <v>krishan@awlindia.com</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B91" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C91" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B92" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C92" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C93" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Subham Singh</v>
+      </c>
+      <c r="B94" t="str">
+        <v>5CD60205YD</v>
+      </c>
+      <c r="C94" t="str">
+        <v>subham@awlindia.com</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Akshay Kumar</v>
+      </c>
+      <c r="B95" t="str">
+        <v>CNU4369GOV</v>
+      </c>
+      <c r="C95" t="str">
+        <v>akshay.kumar@awlindia.com</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C96" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C97" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C98" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B99" t="str">
+        <v>G5JPH2</v>
+      </c>
+      <c r="C99" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="B100" t="str">
+        <v>G5JPH2</v>
+      </c>
+      <c r="C100" t="str">
+        <v>jyoti.panday@awlindia.com</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B101" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C101" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C102" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C103" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C104" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C105" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C106" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C107" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C108" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Radhika Patel</v>
+      </c>
+      <c r="B109" t="str">
+        <v>CNU415BV4H</v>
+      </c>
+      <c r="C109" t="str">
+        <v>radhika@awlindia.com</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Punit</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C110" t="str">
+        <v>punit@awlindia.com</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C111" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C112" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C113" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B114" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C114" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Punit</v>
+      </c>
+      <c r="B115" t="str">
+        <v>CNU326CPJ3</v>
+      </c>
+      <c r="C115" t="str">
+        <v>punit@awlindia.com</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B116" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="C116" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Amresh Singh</v>
+      </c>
+      <c r="B117" t="str">
+        <v>5CG8173N9K</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Amresh.singh@ilogsolution.com</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="B118" t="str">
+        <v>7LQ7NV2</v>
+      </c>
+      <c r="C118" t="str">
+        <v>gurbachan@awlindia.com</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C119" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C120" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B121" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C121" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>ATUL KUMAR</v>
+      </c>
+      <c r="B122" t="str">
+        <v>5CD8135YD1</v>
+      </c>
+      <c r="C122" t="str">
+        <v>atul.kumar@doxandbox.co.in</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Charu Chauhan</v>
+      </c>
+      <c r="B123" t="str">
+        <v>5CD8135YH9</v>
+      </c>
+      <c r="C123" t="str">
+        <v>charu.chauhan@awlindia.com</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>ATUL KUMAR</v>
+      </c>
+      <c r="B124" t="str">
+        <v>5CD8135YD1</v>
+      </c>
+      <c r="C124" t="str">
+        <v>atul.kumar@doxandbox.co.in</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Punit</v>
+      </c>
+      <c r="B125" t="str">
+        <v>5CD8135Y5Q</v>
+      </c>
+      <c r="C125" t="str">
+        <v>punit@awlindia.com</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B126" t="str">
+        <v>J1HRD82</v>
+      </c>
+      <c r="C126" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Arun Prakash M</v>
+      </c>
+      <c r="B127" t="str">
+        <v>33XNGH2</v>
+      </c>
+      <c r="C127" t="str">
+        <v>arun.prakash@awlindia.com</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Randeep Singh</v>
+      </c>
+      <c r="B128" t="str">
+        <v>G5JPH2</v>
+      </c>
+      <c r="C128" t="str">
+        <v>randeep.singh@doxandbox.com</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D128"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +497,7 @@
         <v>munna@awlindia.com</v>
       </c>
       <c r="D7" t="str">
-        <v>Open</v>
+        <v>Closed</v>
       </c>
     </row>
     <row r="8">
@@ -640,9 +640,583 @@
         <v>Closed</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Jyoti Goel</v>
+      </c>
+      <c r="B18" t="str">
+        <v>R90MZVZ2</v>
+      </c>
+      <c r="C18" t="str">
+        <v>jyoti@awlindia.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Mamta Kumari</v>
+      </c>
+      <c r="B19" t="str">
+        <v>7XMHVP2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>mamta.kumari@awlindia.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B20" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C20" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B21" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C21" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="B22" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>sanjay.singh@awlindia.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B23" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C23" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C24" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Lakshmi Narayan Sharma</v>
+      </c>
+      <c r="B25" t="str">
+        <v>8ZX7HR2</v>
+      </c>
+      <c r="C25" t="str">
+        <v>lnsharma@awlindia.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Deepak Behera</v>
+      </c>
+      <c r="B26" t="str">
+        <v>DKG1T32</v>
+      </c>
+      <c r="C26" t="str">
+        <v>deepak@awlindia.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B27" t="str">
+        <v>L9HK853</v>
+      </c>
+      <c r="C27" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Arun Prakash M</v>
+      </c>
+      <c r="B28" t="str">
+        <v>33XNGH2</v>
+      </c>
+      <c r="C28" t="str">
+        <v>arun.prakash@awlindia.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C29" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Devender Kumar</v>
+      </c>
+      <c r="B30" t="str">
+        <v>5CD8135YDV</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Subham Singh</v>
+      </c>
+      <c r="B31" t="str">
+        <v>5CD60205YD</v>
+      </c>
+      <c r="C31" t="str">
+        <v>subham@awlindia.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Devender Kumar</v>
+      </c>
+      <c r="B32" t="str">
+        <v>3XNJ732</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Charu Chauhan</v>
+      </c>
+      <c r="B33" t="str">
+        <v>5CD8135YH9</v>
+      </c>
+      <c r="C33" t="str">
+        <v>charu.chauhan@awlindia.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Dinesh Kumar</v>
+      </c>
+      <c r="B34" t="str">
+        <v>9L4K5S2</v>
+      </c>
+      <c r="C34" t="str">
+        <v>dinesh@awlindia.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Lakshmi Narayan Sharma</v>
+      </c>
+      <c r="B35" t="str">
+        <v>8ZX7HR2</v>
+      </c>
+      <c r="C35" t="str">
+        <v>lnsharma@awlindia.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C36" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Subham Singh</v>
+      </c>
+      <c r="B37" t="str">
+        <v>5CD60205YD</v>
+      </c>
+      <c r="C37" t="str">
+        <v>subham@awlindia.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C38" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C39" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Rupesh Kumar</v>
+      </c>
+      <c r="B40" t="str">
+        <v>1BN3TC2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Rupesh.kumar@ilogsolution.com</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Charu Chauhan</v>
+      </c>
+      <c r="B41" t="str">
+        <v>5CD8135YH9</v>
+      </c>
+      <c r="C41" t="str">
+        <v>charu.chauhan@awlindia.com</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Lakshmi Narayan Sharma</v>
+      </c>
+      <c r="B42" t="str">
+        <v>8ZX7HR2</v>
+      </c>
+      <c r="C42" t="str">
+        <v>lnsharma@awlindia.com</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Devender Kumar</v>
+      </c>
+      <c r="B43" t="str">
+        <v>3XNJ732</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C44" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C45" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C46" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="B47" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="C47" t="str">
+        <v>samridhi@awlindia.com</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C48" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C49" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Jyoti Goel</v>
+      </c>
+      <c r="B50" t="str">
+        <v>R90MZVZ2</v>
+      </c>
+      <c r="C50" t="str">
+        <v>jyoti@awlindia.com</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Neeraj Kumar</v>
+      </c>
+      <c r="B51" t="str">
+        <v>CNU3319V79</v>
+      </c>
+      <c r="C51" t="str">
+        <v>neeraj@awlindia.com</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Akshay Kumar</v>
+      </c>
+      <c r="B52" t="str">
+        <v>CNU4369GOV</v>
+      </c>
+      <c r="C52" t="str">
+        <v>akshay.kumar@awlindia.com</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Vikas Tiwari</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CNU406B4BL</v>
+      </c>
+      <c r="C53" t="str">
+        <v>vikas.tiwari@awlindia.com</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B54" t="str">
+        <v>059881F81220034AE</v>
+      </c>
+      <c r="C54" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Akshay Kumar</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CNU4369GOV</v>
+      </c>
+      <c r="C55" t="str">
+        <v>akshay.kumar@awlindia.com</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Ankush Rastogi</v>
+      </c>
+      <c r="B56" t="str">
+        <v>D7CN6S2</v>
+      </c>
+      <c r="C56" t="str">
+        <v>ankush@awlindia.com</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Nadeem Khan</v>
+      </c>
+      <c r="B57" t="str">
+        <v>4T0WKV1</v>
+      </c>
+      <c r="C57" t="str">
+        <v>nadeem@awlindia.com</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C58" t="str">
+        <v>support@awlindia.com</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Closed</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D58"/>
   </ignoredErrors>
 </worksheet>
 </file>